--- a/BáoCáoChoKháchHàng.xlsx
+++ b/BáoCáoChoKháchHàng.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
   <si>
     <t>Create Date</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>Sau đó chương trình hiển thị các bước tính và kết quả cuối cùng như sau :</t>
+  </si>
+  <si>
+    <t>Chuỗi 1 rỗng và chuỗi 2 thỏa điều kiện</t>
+  </si>
+  <si>
+    <t>Chuỗi 1 thỏa điều kiện và chuỗi 2 rỗng</t>
   </si>
 </sst>
 </file>
@@ -1056,140 +1062,140 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="24" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="25" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="10" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="11" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="15" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="16" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="17" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="12" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="13" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="14" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="24" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="25" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="10" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="11" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="27" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="19" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="27" fillId="0" borderId="30" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="27" fillId="0" borderId="31" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="27" fillId="0" borderId="32" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="27" fillId="0" borderId="33" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="24" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="25" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="10" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="11" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="15" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="16" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="17" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="12" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="13" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="14" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="24" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="25" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="10" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="11" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="27" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="19" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="27" fillId="0" borderId="30" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="27" fillId="0" borderId="31" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="27" fillId="0" borderId="32" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="27" fillId="0" borderId="33" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -1717,8 +1723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A41" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AK35" sqref="AK35"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A18" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26:P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.88671875" defaultRowHeight="13.8"/>
@@ -1728,188 +1734,188 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="15" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="42" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="48" t="s">
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="49"/>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="50"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="45"/>
     </row>
     <row r="2" spans="1:36" ht="15" customHeight="1">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="51" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="53"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="47"/>
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="47"/>
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="47"/>
+      <c r="AI2" s="47"/>
+      <c r="AJ2" s="48"/>
     </row>
     <row r="3" spans="1:36" ht="15" customHeight="1">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="58" t="s">
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="55" t="s">
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="66" t="s">
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="67"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="62"/>
       <c r="W3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
-      <c r="Z3" s="70">
+      <c r="Z3" s="65">
         <v>43112</v>
       </c>
-      <c r="AA3" s="70"/>
-      <c r="AB3" s="70"/>
-      <c r="AC3" s="71"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="66"/>
       <c r="AD3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AE3" s="5"/>
       <c r="AF3" s="6"/>
-      <c r="AG3" s="72" t="s">
+      <c r="AG3" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="AH3" s="73"/>
-      <c r="AI3" s="73"/>
-      <c r="AJ3" s="74"/>
+      <c r="AH3" s="68"/>
+      <c r="AI3" s="68"/>
+      <c r="AJ3" s="69"/>
     </row>
     <row r="4" spans="1:36" ht="15" customHeight="1">
-      <c r="A4" s="56"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="69"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="64"/>
       <c r="W4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
-      <c r="Z4" s="75" t="s">
+      <c r="Z4" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="AA4" s="75"/>
-      <c r="AB4" s="75"/>
-      <c r="AC4" s="76"/>
+      <c r="AA4" s="70"/>
+      <c r="AB4" s="70"/>
+      <c r="AC4" s="71"/>
       <c r="AD4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="AE4" s="7"/>
       <c r="AF4" s="8"/>
-      <c r="AG4" s="72" t="s">
+      <c r="AG4" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="AH4" s="73"/>
-      <c r="AI4" s="73"/>
-      <c r="AJ4" s="74"/>
+      <c r="AH4" s="68"/>
+      <c r="AI4" s="68"/>
+      <c r="AJ4" s="69"/>
     </row>
     <row r="5" spans="1:36" ht="15.6">
       <c r="A5" s="10">
@@ -2236,65 +2242,65 @@
       <c r="AJ12" s="25"/>
     </row>
     <row r="13" spans="1:36">
-      <c r="Q13" s="34" t="s">
+      <c r="Q13" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="34"/>
-      <c r="W13" s="34"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="34"/>
-      <c r="Z13" s="34"/>
-      <c r="AA13" s="34"/>
-      <c r="AB13" s="34"/>
-      <c r="AC13" s="34"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="32"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="32"/>
+      <c r="Y13" s="32"/>
+      <c r="Z13" s="32"/>
+      <c r="AA13" s="32"/>
+      <c r="AB13" s="32"/>
+      <c r="AC13" s="32"/>
     </row>
     <row r="14" spans="1:36" ht="13.8" customHeight="1">
       <c r="B14" s="9"/>
       <c r="C14" s="16">
         <v>1</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="34" t="s">
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="72"/>
+      <c r="Q14" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="34"/>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="34"/>
-      <c r="AA14" s="34"/>
-      <c r="AB14" s="34"/>
-      <c r="AC14" s="34"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="32"/>
+      <c r="V14" s="32"/>
+      <c r="W14" s="32"/>
+      <c r="X14" s="32"/>
+      <c r="Y14" s="32"/>
+      <c r="Z14" s="32"/>
+      <c r="AA14" s="32"/>
+      <c r="AB14" s="32"/>
+      <c r="AC14" s="32"/>
       <c r="AD14" s="16"/>
-      <c r="AE14" s="34" t="s">
+      <c r="AE14" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="AF14" s="34"/>
-      <c r="AG14" s="34"/>
-      <c r="AH14" s="34"/>
-      <c r="AI14" s="34"/>
+      <c r="AF14" s="32"/>
+      <c r="AG14" s="32"/>
+      <c r="AH14" s="32"/>
+      <c r="AI14" s="32"/>
       <c r="AJ14" s="16"/>
     </row>
     <row r="15" spans="1:36" ht="13.8" customHeight="1">
@@ -2302,616 +2308,616 @@
       <c r="C15" s="16">
         <v>2</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="34" t="s">
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="72"/>
+      <c r="Q15" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="34"/>
-      <c r="W15" s="34"/>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="34"/>
-      <c r="Z15" s="34"/>
-      <c r="AA15" s="34"/>
-      <c r="AB15" s="34"/>
-      <c r="AC15" s="34"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="32"/>
+      <c r="AA15" s="32"/>
+      <c r="AB15" s="32"/>
+      <c r="AC15" s="32"/>
       <c r="AD15" s="16"/>
-      <c r="AE15" s="34" t="s">
+      <c r="AE15" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="AF15" s="34"/>
-      <c r="AG15" s="34"/>
-      <c r="AH15" s="34"/>
-      <c r="AI15" s="34"/>
+      <c r="AF15" s="32"/>
+      <c r="AG15" s="32"/>
+      <c r="AH15" s="32"/>
+      <c r="AI15" s="32"/>
     </row>
     <row r="16" spans="1:36" ht="13.8" customHeight="1">
       <c r="B16" s="9"/>
       <c r="C16" s="16">
         <v>3</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="34" t="s">
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="R16" s="34"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="34"/>
-      <c r="Y16" s="34"/>
-      <c r="Z16" s="34"/>
-      <c r="AA16" s="34"/>
-      <c r="AB16" s="34"/>
-      <c r="AC16" s="34"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="32"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="32"/>
+      <c r="Y16" s="32"/>
+      <c r="Z16" s="32"/>
+      <c r="AA16" s="32"/>
+      <c r="AB16" s="32"/>
+      <c r="AC16" s="32"/>
       <c r="AD16" s="16"/>
-      <c r="AE16" s="34" t="s">
+      <c r="AE16" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="AF16" s="34"/>
-      <c r="AG16" s="34"/>
-      <c r="AH16" s="34"/>
-      <c r="AI16" s="34"/>
+      <c r="AF16" s="32"/>
+      <c r="AG16" s="32"/>
+      <c r="AH16" s="32"/>
+      <c r="AI16" s="32"/>
     </row>
     <row r="17" spans="2:35" ht="13.8" customHeight="1">
       <c r="B17" s="9"/>
       <c r="C17" s="16">
         <v>4</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="34" t="s">
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="72"/>
+      <c r="P17" s="72"/>
+      <c r="Q17" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="34"/>
-      <c r="W17" s="34"/>
-      <c r="X17" s="34"/>
-      <c r="Y17" s="34"/>
-      <c r="Z17" s="34"/>
-      <c r="AA17" s="34"/>
-      <c r="AB17" s="34"/>
-      <c r="AC17" s="34"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="32"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="32"/>
+      <c r="Y17" s="32"/>
+      <c r="Z17" s="32"/>
+      <c r="AA17" s="32"/>
+      <c r="AB17" s="32"/>
+      <c r="AC17" s="32"/>
       <c r="AD17" s="16"/>
-      <c r="AE17" s="34" t="s">
+      <c r="AE17" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="AF17" s="34"/>
-      <c r="AG17" s="34"/>
-      <c r="AH17" s="34"/>
-      <c r="AI17" s="34"/>
+      <c r="AF17" s="32"/>
+      <c r="AG17" s="32"/>
+      <c r="AH17" s="32"/>
+      <c r="AI17" s="32"/>
     </row>
     <row r="18" spans="2:35" ht="13.8" customHeight="1">
       <c r="B18" s="9"/>
       <c r="C18" s="16">
         <v>5</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="34" t="s">
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
+      <c r="P18" s="72"/>
+      <c r="Q18" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="34"/>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="34"/>
-      <c r="AA18" s="34"/>
-      <c r="AB18" s="34"/>
-      <c r="AC18" s="34"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="32"/>
+      <c r="Y18" s="32"/>
+      <c r="Z18" s="32"/>
+      <c r="AA18" s="32"/>
+      <c r="AB18" s="32"/>
+      <c r="AC18" s="32"/>
       <c r="AD18" s="16"/>
-      <c r="AE18" s="34" t="s">
+      <c r="AE18" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="AF18" s="34"/>
-      <c r="AG18" s="34"/>
-      <c r="AH18" s="34"/>
-      <c r="AI18" s="34"/>
+      <c r="AF18" s="32"/>
+      <c r="AG18" s="32"/>
+      <c r="AH18" s="32"/>
+      <c r="AI18" s="32"/>
     </row>
     <row r="19" spans="2:35" ht="13.8" customHeight="1">
       <c r="B19" s="9"/>
       <c r="C19" s="16">
         <v>6</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="34" t="s">
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="72"/>
+      <c r="O19" s="72"/>
+      <c r="P19" s="72"/>
+      <c r="Q19" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="34"/>
-      <c r="W19" s="34"/>
-      <c r="X19" s="34"/>
-      <c r="Y19" s="34"/>
-      <c r="Z19" s="34"/>
-      <c r="AA19" s="34"/>
-      <c r="AB19" s="34"/>
-      <c r="AC19" s="34"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="32"/>
+      <c r="Y19" s="32"/>
+      <c r="Z19" s="32"/>
+      <c r="AA19" s="32"/>
+      <c r="AB19" s="32"/>
+      <c r="AC19" s="32"/>
       <c r="AD19" s="16"/>
-      <c r="AE19" s="34" t="s">
+      <c r="AE19" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="AF19" s="34"/>
-      <c r="AG19" s="34"/>
-      <c r="AH19" s="34"/>
-      <c r="AI19" s="34"/>
+      <c r="AF19" s="32"/>
+      <c r="AG19" s="32"/>
+      <c r="AH19" s="32"/>
+      <c r="AI19" s="32"/>
     </row>
     <row r="20" spans="2:35" ht="15" customHeight="1">
       <c r="B20" s="9"/>
       <c r="C20" s="16">
         <v>7</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="34" t="s">
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="72"/>
+      <c r="O20" s="72"/>
+      <c r="P20" s="72"/>
+      <c r="Q20" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="34"/>
-      <c r="W20" s="34"/>
-      <c r="X20" s="34"/>
-      <c r="Y20" s="34"/>
-      <c r="Z20" s="34"/>
-      <c r="AA20" s="34"/>
-      <c r="AB20" s="34"/>
-      <c r="AC20" s="34"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="32"/>
+      <c r="Y20" s="32"/>
+      <c r="Z20" s="32"/>
+      <c r="AA20" s="32"/>
+      <c r="AB20" s="32"/>
+      <c r="AC20" s="32"/>
       <c r="AD20" s="16"/>
-      <c r="AE20" s="34" t="s">
+      <c r="AE20" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="AF20" s="34"/>
-      <c r="AG20" s="34"/>
-      <c r="AH20" s="34"/>
-      <c r="AI20" s="34"/>
+      <c r="AF20" s="32"/>
+      <c r="AG20" s="32"/>
+      <c r="AH20" s="32"/>
+      <c r="AI20" s="32"/>
     </row>
     <row r="21" spans="2:35" ht="15" customHeight="1">
       <c r="B21" s="9"/>
       <c r="C21" s="16">
         <v>8</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="34" t="s">
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="72"/>
+      <c r="N21" s="72"/>
+      <c r="O21" s="72"/>
+      <c r="P21" s="72"/>
+      <c r="Q21" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="R21" s="34"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="34"/>
-      <c r="W21" s="34"/>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="34"/>
-      <c r="Z21" s="34"/>
-      <c r="AA21" s="34"/>
-      <c r="AB21" s="34"/>
-      <c r="AC21" s="34"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="32"/>
+      <c r="Z21" s="32"/>
+      <c r="AA21" s="32"/>
+      <c r="AB21" s="32"/>
+      <c r="AC21" s="32"/>
       <c r="AD21" s="16"/>
-      <c r="AE21" s="34" t="s">
+      <c r="AE21" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="AF21" s="34"/>
-      <c r="AG21" s="34"/>
-      <c r="AH21" s="34"/>
-      <c r="AI21" s="34"/>
+      <c r="AF21" s="32"/>
+      <c r="AG21" s="32"/>
+      <c r="AH21" s="32"/>
+      <c r="AI21" s="32"/>
     </row>
     <row r="22" spans="2:35" ht="13.8" customHeight="1">
       <c r="B22" s="9"/>
       <c r="C22" s="16">
         <v>9</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="34" t="s">
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="72"/>
+      <c r="N22" s="72"/>
+      <c r="O22" s="72"/>
+      <c r="P22" s="72"/>
+      <c r="Q22" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="R22" s="34"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="34"/>
-      <c r="V22" s="34"/>
-      <c r="W22" s="34"/>
-      <c r="X22" s="34"/>
-      <c r="Y22" s="34"/>
-      <c r="Z22" s="34"/>
-      <c r="AA22" s="34"/>
-      <c r="AB22" s="34"/>
-      <c r="AC22" s="34"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="32"/>
+      <c r="X22" s="32"/>
+      <c r="Y22" s="32"/>
+      <c r="Z22" s="32"/>
+      <c r="AA22" s="32"/>
+      <c r="AB22" s="32"/>
+      <c r="AC22" s="32"/>
       <c r="AD22" s="16"/>
-      <c r="AE22" s="34" t="s">
+      <c r="AE22" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="AF22" s="34"/>
-      <c r="AG22" s="34"/>
-      <c r="AH22" s="34"/>
-      <c r="AI22" s="34"/>
+      <c r="AF22" s="32"/>
+      <c r="AG22" s="32"/>
+      <c r="AH22" s="32"/>
+      <c r="AI22" s="32"/>
     </row>
     <row r="23" spans="2:35" ht="13.8" customHeight="1">
       <c r="B23" s="9"/>
       <c r="C23" s="21">
         <v>10</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="34" t="s">
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="72"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="72"/>
+      <c r="P23" s="72"/>
+      <c r="Q23" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="R23" s="34"/>
-      <c r="S23" s="34"/>
-      <c r="T23" s="34"/>
-      <c r="U23" s="34"/>
-      <c r="V23" s="34"/>
-      <c r="W23" s="34"/>
-      <c r="X23" s="34"/>
-      <c r="Y23" s="34"/>
-      <c r="Z23" s="34"/>
-      <c r="AA23" s="34"/>
-      <c r="AB23" s="34"/>
-      <c r="AC23" s="34"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="32"/>
+      <c r="W23" s="32"/>
+      <c r="X23" s="32"/>
+      <c r="Y23" s="32"/>
+      <c r="Z23" s="32"/>
+      <c r="AA23" s="32"/>
+      <c r="AB23" s="32"/>
+      <c r="AC23" s="32"/>
       <c r="AD23" s="16"/>
-      <c r="AE23" s="34" t="s">
+      <c r="AE23" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="AF23" s="34"/>
-      <c r="AG23" s="34"/>
-      <c r="AH23" s="34"/>
-      <c r="AI23" s="34"/>
+      <c r="AF23" s="32"/>
+      <c r="AG23" s="32"/>
+      <c r="AH23" s="32"/>
+      <c r="AI23" s="32"/>
     </row>
     <row r="24" spans="2:35" ht="13.8" customHeight="1">
       <c r="B24" s="9"/>
       <c r="C24" s="21">
         <v>11</v>
       </c>
-      <c r="D24" s="37" t="s">
+      <c r="D24" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="34" t="s">
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="72"/>
+      <c r="N24" s="72"/>
+      <c r="O24" s="72"/>
+      <c r="P24" s="72"/>
+      <c r="Q24" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="R24" s="34"/>
-      <c r="S24" s="34"/>
-      <c r="T24" s="34"/>
-      <c r="U24" s="34"/>
-      <c r="V24" s="34"/>
-      <c r="W24" s="34"/>
-      <c r="X24" s="34"/>
-      <c r="Y24" s="34"/>
-      <c r="Z24" s="34"/>
-      <c r="AA24" s="34"/>
-      <c r="AB24" s="34"/>
-      <c r="AC24" s="34"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="32"/>
+      <c r="W24" s="32"/>
+      <c r="X24" s="32"/>
+      <c r="Y24" s="32"/>
+      <c r="Z24" s="32"/>
+      <c r="AA24" s="32"/>
+      <c r="AB24" s="32"/>
+      <c r="AC24" s="32"/>
       <c r="AD24" s="16"/>
-      <c r="AE24" s="34" t="s">
+      <c r="AE24" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="AF24" s="34"/>
-      <c r="AG24" s="34"/>
-      <c r="AH24" s="34"/>
-      <c r="AI24" s="34"/>
+      <c r="AF24" s="32"/>
+      <c r="AG24" s="32"/>
+      <c r="AH24" s="32"/>
+      <c r="AI24" s="32"/>
     </row>
     <row r="25" spans="2:35" ht="13.8" customHeight="1">
       <c r="B25" s="9"/>
       <c r="C25" s="21">
         <v>12</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="34" t="s">
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="72"/>
+      <c r="O25" s="72"/>
+      <c r="P25" s="72"/>
+      <c r="Q25" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="R25" s="34"/>
-      <c r="S25" s="34"/>
-      <c r="T25" s="34"/>
-      <c r="U25" s="34"/>
-      <c r="V25" s="34"/>
-      <c r="W25" s="34"/>
-      <c r="X25" s="34"/>
-      <c r="Y25" s="34"/>
-      <c r="Z25" s="34"/>
-      <c r="AA25" s="34"/>
-      <c r="AB25" s="34"/>
-      <c r="AC25" s="34"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="32"/>
+      <c r="V25" s="32"/>
+      <c r="W25" s="32"/>
+      <c r="X25" s="32"/>
+      <c r="Y25" s="32"/>
+      <c r="Z25" s="32"/>
+      <c r="AA25" s="32"/>
+      <c r="AB25" s="32"/>
+      <c r="AC25" s="32"/>
       <c r="AD25" s="16"/>
-      <c r="AE25" s="34" t="s">
+      <c r="AE25" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="AF25" s="34"/>
-      <c r="AG25" s="34"/>
-      <c r="AH25" s="34"/>
-      <c r="AI25" s="34"/>
+      <c r="AF25" s="32"/>
+      <c r="AG25" s="32"/>
+      <c r="AH25" s="32"/>
+      <c r="AI25" s="32"/>
     </row>
     <row r="26" spans="2:35" ht="13.8" customHeight="1">
       <c r="B26" s="9"/>
       <c r="C26" s="21">
         <v>13</v>
       </c>
-      <c r="D26" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="34" t="s">
+      <c r="D26" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="72"/>
+      <c r="O26" s="72"/>
+      <c r="P26" s="72"/>
+      <c r="Q26" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="R26" s="34"/>
-      <c r="S26" s="34"/>
-      <c r="T26" s="34"/>
-      <c r="U26" s="34"/>
-      <c r="V26" s="34"/>
-      <c r="W26" s="34"/>
-      <c r="X26" s="34"/>
-      <c r="Y26" s="34"/>
-      <c r="Z26" s="34"/>
-      <c r="AA26" s="34"/>
-      <c r="AB26" s="34"/>
-      <c r="AC26" s="34"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="32"/>
+      <c r="X26" s="32"/>
+      <c r="Y26" s="32"/>
+      <c r="Z26" s="32"/>
+      <c r="AA26" s="32"/>
+      <c r="AB26" s="32"/>
+      <c r="AC26" s="32"/>
       <c r="AD26" s="16"/>
-      <c r="AE26" s="34" t="s">
+      <c r="AE26" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="AF26" s="34"/>
-      <c r="AG26" s="34"/>
-      <c r="AH26" s="34"/>
-      <c r="AI26" s="34"/>
+      <c r="AF26" s="32"/>
+      <c r="AG26" s="32"/>
+      <c r="AH26" s="32"/>
+      <c r="AI26" s="32"/>
     </row>
     <row r="27" spans="2:35" ht="13.8" customHeight="1">
       <c r="B27" s="9"/>
       <c r="C27" s="21">
         <v>14</v>
       </c>
-      <c r="D27" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="34" t="s">
+      <c r="D27" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="72"/>
+      <c r="N27" s="72"/>
+      <c r="O27" s="72"/>
+      <c r="P27" s="72"/>
+      <c r="Q27" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="R27" s="34"/>
-      <c r="S27" s="34"/>
-      <c r="T27" s="34"/>
-      <c r="U27" s="34"/>
-      <c r="V27" s="34"/>
-      <c r="W27" s="34"/>
-      <c r="X27" s="34"/>
-      <c r="Y27" s="34"/>
-      <c r="Z27" s="34"/>
-      <c r="AA27" s="34"/>
-      <c r="AB27" s="34"/>
-      <c r="AC27" s="34"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="32"/>
+      <c r="V27" s="32"/>
+      <c r="W27" s="32"/>
+      <c r="X27" s="32"/>
+      <c r="Y27" s="32"/>
+      <c r="Z27" s="32"/>
+      <c r="AA27" s="32"/>
+      <c r="AB27" s="32"/>
+      <c r="AC27" s="32"/>
       <c r="AD27" s="16"/>
-      <c r="AE27" s="34" t="s">
+      <c r="AE27" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="AF27" s="34"/>
-      <c r="AG27" s="34"/>
-      <c r="AH27" s="34"/>
-      <c r="AI27" s="34"/>
+      <c r="AF27" s="32"/>
+      <c r="AG27" s="32"/>
+      <c r="AH27" s="32"/>
+      <c r="AI27" s="32"/>
     </row>
     <row r="28" spans="2:35" ht="13.8" customHeight="1">
       <c r="B28" s="9"/>
       <c r="C28" s="21">
         <v>15</v>
       </c>
-      <c r="D28" s="33" t="s">
+      <c r="D28" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="34" t="s">
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="76"/>
+      <c r="L28" s="76"/>
+      <c r="M28" s="76"/>
+      <c r="N28" s="76"/>
+      <c r="O28" s="76"/>
+      <c r="P28" s="76"/>
+      <c r="Q28" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="R28" s="34"/>
-      <c r="S28" s="34"/>
-      <c r="T28" s="34"/>
-      <c r="U28" s="34"/>
-      <c r="V28" s="34"/>
-      <c r="W28" s="34"/>
-      <c r="X28" s="34"/>
-      <c r="Y28" s="34"/>
-      <c r="Z28" s="34"/>
-      <c r="AA28" s="34"/>
-      <c r="AB28" s="34"/>
-      <c r="AC28" s="34"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="32"/>
+      <c r="U28" s="32"/>
+      <c r="V28" s="32"/>
+      <c r="W28" s="32"/>
+      <c r="X28" s="32"/>
+      <c r="Y28" s="32"/>
+      <c r="Z28" s="32"/>
+      <c r="AA28" s="32"/>
+      <c r="AB28" s="32"/>
+      <c r="AC28" s="32"/>
       <c r="AD28" s="16"/>
-      <c r="AE28" s="34" t="s">
+      <c r="AE28" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="AF28" s="34"/>
-      <c r="AG28" s="34"/>
-      <c r="AH28" s="34"/>
-      <c r="AI28" s="34"/>
+      <c r="AF28" s="32"/>
+      <c r="AG28" s="32"/>
+      <c r="AH28" s="32"/>
+      <c r="AI28" s="32"/>
     </row>
     <row r="29" spans="2:35" ht="13.8" customHeight="1">
       <c r="B29" s="9"/>
@@ -3767,212 +3773,212 @@
       <c r="D55" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E55" s="33" t="s">
+      <c r="E55" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="33"/>
-      <c r="J55" s="33"/>
-      <c r="K55" s="33"/>
-      <c r="L55" s="33"/>
-      <c r="M55" s="33"/>
-      <c r="N55" s="33"/>
-      <c r="O55" s="33"/>
-      <c r="P55" s="33"/>
-      <c r="Q55" s="33"/>
-      <c r="R55" s="33"/>
-      <c r="S55" s="33"/>
-      <c r="T55" s="33"/>
-      <c r="U55" s="33"/>
-      <c r="V55" s="33"/>
-      <c r="W55" s="33"/>
-      <c r="X55" s="33"/>
-      <c r="Y55" s="33"/>
-      <c r="Z55" s="33"/>
-      <c r="AA55" s="33"/>
-      <c r="AB55" s="33"/>
-      <c r="AC55" s="33"/>
-      <c r="AD55" s="33"/>
-      <c r="AE55" s="33"/>
-      <c r="AF55" s="33"/>
-      <c r="AG55" s="33"/>
-      <c r="AH55" s="33"/>
-      <c r="AI55" s="33"/>
-      <c r="AJ55" s="33"/>
+      <c r="F55" s="76"/>
+      <c r="G55" s="76"/>
+      <c r="H55" s="76"/>
+      <c r="I55" s="76"/>
+      <c r="J55" s="76"/>
+      <c r="K55" s="76"/>
+      <c r="L55" s="76"/>
+      <c r="M55" s="76"/>
+      <c r="N55" s="76"/>
+      <c r="O55" s="76"/>
+      <c r="P55" s="76"/>
+      <c r="Q55" s="76"/>
+      <c r="R55" s="76"/>
+      <c r="S55" s="76"/>
+      <c r="T55" s="76"/>
+      <c r="U55" s="76"/>
+      <c r="V55" s="76"/>
+      <c r="W55" s="76"/>
+      <c r="X55" s="76"/>
+      <c r="Y55" s="76"/>
+      <c r="Z55" s="76"/>
+      <c r="AA55" s="76"/>
+      <c r="AB55" s="76"/>
+      <c r="AC55" s="76"/>
+      <c r="AD55" s="76"/>
+      <c r="AE55" s="76"/>
+      <c r="AF55" s="76"/>
+      <c r="AG55" s="76"/>
+      <c r="AH55" s="76"/>
+      <c r="AI55" s="76"/>
+      <c r="AJ55" s="76"/>
     </row>
     <row r="56" spans="1:36">
       <c r="D56" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E56" s="33" t="s">
+      <c r="E56" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="33"/>
-      <c r="I56" s="33"/>
-      <c r="J56" s="33"/>
-      <c r="K56" s="33"/>
-      <c r="L56" s="33"/>
-      <c r="M56" s="33"/>
-      <c r="N56" s="33"/>
-      <c r="O56" s="33"/>
-      <c r="P56" s="33"/>
-      <c r="Q56" s="33"/>
-      <c r="R56" s="33"/>
-      <c r="S56" s="33"/>
-      <c r="T56" s="33"/>
-      <c r="U56" s="33"/>
-      <c r="V56" s="33"/>
-      <c r="W56" s="33"/>
-      <c r="X56" s="33"/>
-      <c r="Y56" s="33"/>
-      <c r="Z56" s="33"/>
-      <c r="AA56" s="33"/>
-      <c r="AB56" s="33"/>
-      <c r="AC56" s="33"/>
-      <c r="AD56" s="33"/>
-      <c r="AE56" s="33"/>
-      <c r="AF56" s="33"/>
-      <c r="AG56" s="33"/>
-      <c r="AH56" s="33"/>
-      <c r="AI56" s="33"/>
-      <c r="AJ56" s="33"/>
+      <c r="F56" s="76"/>
+      <c r="G56" s="76"/>
+      <c r="H56" s="76"/>
+      <c r="I56" s="76"/>
+      <c r="J56" s="76"/>
+      <c r="K56" s="76"/>
+      <c r="L56" s="76"/>
+      <c r="M56" s="76"/>
+      <c r="N56" s="76"/>
+      <c r="O56" s="76"/>
+      <c r="P56" s="76"/>
+      <c r="Q56" s="76"/>
+      <c r="R56" s="76"/>
+      <c r="S56" s="76"/>
+      <c r="T56" s="76"/>
+      <c r="U56" s="76"/>
+      <c r="V56" s="76"/>
+      <c r="W56" s="76"/>
+      <c r="X56" s="76"/>
+      <c r="Y56" s="76"/>
+      <c r="Z56" s="76"/>
+      <c r="AA56" s="76"/>
+      <c r="AB56" s="76"/>
+      <c r="AC56" s="76"/>
+      <c r="AD56" s="76"/>
+      <c r="AE56" s="76"/>
+      <c r="AF56" s="76"/>
+      <c r="AG56" s="76"/>
+      <c r="AH56" s="76"/>
+      <c r="AI56" s="76"/>
+      <c r="AJ56" s="76"/>
     </row>
     <row r="57" spans="1:36">
       <c r="D57" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E57" s="33" t="s">
+      <c r="E57" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="F57" s="33"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="33"/>
-      <c r="J57" s="33"/>
-      <c r="K57" s="33"/>
-      <c r="L57" s="33"/>
-      <c r="M57" s="33"/>
-      <c r="N57" s="33"/>
-      <c r="O57" s="33"/>
-      <c r="P57" s="33"/>
-      <c r="Q57" s="33"/>
-      <c r="R57" s="33"/>
-      <c r="S57" s="33"/>
-      <c r="T57" s="33"/>
-      <c r="U57" s="33"/>
-      <c r="V57" s="33"/>
-      <c r="W57" s="33"/>
-      <c r="X57" s="33"/>
-      <c r="Y57" s="33"/>
-      <c r="Z57" s="33"/>
-      <c r="AA57" s="33"/>
-      <c r="AB57" s="33"/>
-      <c r="AC57" s="33"/>
-      <c r="AD57" s="33"/>
-      <c r="AE57" s="33"/>
-      <c r="AF57" s="33"/>
-      <c r="AG57" s="33"/>
-      <c r="AH57" s="33"/>
-      <c r="AI57" s="33"/>
-      <c r="AJ57" s="33"/>
+      <c r="F57" s="76"/>
+      <c r="G57" s="76"/>
+      <c r="H57" s="76"/>
+      <c r="I57" s="76"/>
+      <c r="J57" s="76"/>
+      <c r="K57" s="76"/>
+      <c r="L57" s="76"/>
+      <c r="M57" s="76"/>
+      <c r="N57" s="76"/>
+      <c r="O57" s="76"/>
+      <c r="P57" s="76"/>
+      <c r="Q57" s="76"/>
+      <c r="R57" s="76"/>
+      <c r="S57" s="76"/>
+      <c r="T57" s="76"/>
+      <c r="U57" s="76"/>
+      <c r="V57" s="76"/>
+      <c r="W57" s="76"/>
+      <c r="X57" s="76"/>
+      <c r="Y57" s="76"/>
+      <c r="Z57" s="76"/>
+      <c r="AA57" s="76"/>
+      <c r="AB57" s="76"/>
+      <c r="AC57" s="76"/>
+      <c r="AD57" s="76"/>
+      <c r="AE57" s="76"/>
+      <c r="AF57" s="76"/>
+      <c r="AG57" s="76"/>
+      <c r="AH57" s="76"/>
+      <c r="AI57" s="76"/>
+      <c r="AJ57" s="76"/>
     </row>
     <row r="58" spans="1:36">
       <c r="C58">
         <v>3</v>
       </c>
-      <c r="D58" s="35" t="s">
+      <c r="D58" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="E58" s="35"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="35"/>
-      <c r="J58" s="35"/>
-      <c r="K58" s="35"/>
-      <c r="L58" s="35"/>
-      <c r="M58" s="35"/>
-      <c r="N58" s="35"/>
-      <c r="O58" s="35"/>
-      <c r="P58" s="35"/>
-      <c r="Q58" s="35"/>
-      <c r="R58" s="35"/>
-      <c r="S58" s="35"/>
-      <c r="T58" s="35"/>
-      <c r="U58" s="35"/>
-      <c r="V58" s="35"/>
-      <c r="W58" s="35"/>
-      <c r="X58" s="35"/>
-      <c r="Y58" s="35"/>
-      <c r="Z58" s="35"/>
-      <c r="AA58" s="35"/>
-      <c r="AB58" s="35"/>
-      <c r="AC58" s="35"/>
+      <c r="E58" s="73"/>
+      <c r="F58" s="73"/>
+      <c r="G58" s="73"/>
+      <c r="H58" s="73"/>
+      <c r="I58" s="73"/>
+      <c r="J58" s="73"/>
+      <c r="K58" s="73"/>
+      <c r="L58" s="73"/>
+      <c r="M58" s="73"/>
+      <c r="N58" s="73"/>
+      <c r="O58" s="73"/>
+      <c r="P58" s="73"/>
+      <c r="Q58" s="73"/>
+      <c r="R58" s="73"/>
+      <c r="S58" s="73"/>
+      <c r="T58" s="73"/>
+      <c r="U58" s="73"/>
+      <c r="V58" s="73"/>
+      <c r="W58" s="73"/>
+      <c r="X58" s="73"/>
+      <c r="Y58" s="73"/>
+      <c r="Z58" s="73"/>
+      <c r="AA58" s="73"/>
+      <c r="AB58" s="73"/>
+      <c r="AC58" s="73"/>
       <c r="AD58" s="26"/>
     </row>
     <row r="59" spans="1:36">
       <c r="C59" s="17"/>
-      <c r="D59" s="36"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="36"/>
-      <c r="G59" s="36"/>
-      <c r="H59" s="36"/>
-      <c r="I59" s="36"/>
-      <c r="J59" s="36"/>
-      <c r="K59" s="36"/>
-      <c r="L59" s="36"/>
-      <c r="M59" s="36"/>
-      <c r="N59" s="36"/>
-      <c r="O59" s="36"/>
-      <c r="P59" s="36"/>
-      <c r="Q59" s="36"/>
-      <c r="R59" s="36"/>
-      <c r="S59" s="36"/>
-      <c r="T59" s="36"/>
-      <c r="U59" s="36"/>
-      <c r="V59" s="36"/>
-      <c r="W59" s="36"/>
-      <c r="X59" s="36"/>
-      <c r="Y59" s="36"/>
-      <c r="Z59" s="36"/>
-      <c r="AA59" s="36"/>
-      <c r="AB59" s="36"/>
-      <c r="AC59" s="36"/>
+      <c r="D59" s="74"/>
+      <c r="E59" s="74"/>
+      <c r="F59" s="74"/>
+      <c r="G59" s="74"/>
+      <c r="H59" s="74"/>
+      <c r="I59" s="74"/>
+      <c r="J59" s="74"/>
+      <c r="K59" s="74"/>
+      <c r="L59" s="74"/>
+      <c r="M59" s="74"/>
+      <c r="N59" s="74"/>
+      <c r="O59" s="74"/>
+      <c r="P59" s="74"/>
+      <c r="Q59" s="74"/>
+      <c r="R59" s="74"/>
+      <c r="S59" s="74"/>
+      <c r="T59" s="74"/>
+      <c r="U59" s="74"/>
+      <c r="V59" s="74"/>
+      <c r="W59" s="74"/>
+      <c r="X59" s="74"/>
+      <c r="Y59" s="74"/>
+      <c r="Z59" s="74"/>
+      <c r="AA59" s="74"/>
+      <c r="AB59" s="74"/>
+      <c r="AC59" s="74"/>
       <c r="AD59" s="26"/>
     </row>
     <row r="60" spans="1:36">
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="36"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="36"/>
-      <c r="J60" s="36"/>
-      <c r="K60" s="36"/>
-      <c r="L60" s="36"/>
-      <c r="M60" s="36"/>
-      <c r="N60" s="36"/>
-      <c r="O60" s="36"/>
-      <c r="P60" s="36"/>
-      <c r="Q60" s="36"/>
-      <c r="R60" s="36"/>
-      <c r="S60" s="36"/>
-      <c r="T60" s="36"/>
-      <c r="U60" s="36"/>
-      <c r="V60" s="36"/>
-      <c r="W60" s="36"/>
-      <c r="X60" s="36"/>
-      <c r="Y60" s="36"/>
-      <c r="Z60" s="36"/>
-      <c r="AA60" s="36"/>
-      <c r="AB60" s="36"/>
-      <c r="AC60" s="36"/>
+      <c r="D60" s="74"/>
+      <c r="E60" s="74"/>
+      <c r="F60" s="74"/>
+      <c r="G60" s="74"/>
+      <c r="H60" s="74"/>
+      <c r="I60" s="74"/>
+      <c r="J60" s="74"/>
+      <c r="K60" s="74"/>
+      <c r="L60" s="74"/>
+      <c r="M60" s="74"/>
+      <c r="N60" s="74"/>
+      <c r="O60" s="74"/>
+      <c r="P60" s="74"/>
+      <c r="Q60" s="74"/>
+      <c r="R60" s="74"/>
+      <c r="S60" s="74"/>
+      <c r="T60" s="74"/>
+      <c r="U60" s="74"/>
+      <c r="V60" s="74"/>
+      <c r="W60" s="74"/>
+      <c r="X60" s="74"/>
+      <c r="Y60" s="74"/>
+      <c r="Z60" s="74"/>
+      <c r="AA60" s="74"/>
+      <c r="AB60" s="74"/>
+      <c r="AC60" s="74"/>
       <c r="AD60" s="26"/>
       <c r="AE60" s="16"/>
       <c r="AF60" s="16"/>
@@ -3985,32 +3991,32 @@
       <c r="A61" s="28"/>
       <c r="B61" s="27"/>
       <c r="C61" s="27"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="32"/>
-      <c r="G61" s="32"/>
-      <c r="H61" s="32"/>
-      <c r="I61" s="32"/>
-      <c r="J61" s="32"/>
-      <c r="K61" s="32"/>
-      <c r="L61" s="32"/>
-      <c r="M61" s="32"/>
-      <c r="N61" s="32"/>
-      <c r="O61" s="32"/>
-      <c r="P61" s="32"/>
-      <c r="Q61" s="32"/>
-      <c r="R61" s="32"/>
-      <c r="S61" s="32"/>
-      <c r="T61" s="32"/>
-      <c r="U61" s="32"/>
-      <c r="V61" s="32"/>
-      <c r="W61" s="32"/>
-      <c r="X61" s="32"/>
-      <c r="Y61" s="32"/>
-      <c r="Z61" s="32"/>
-      <c r="AA61" s="32"/>
-      <c r="AB61" s="32"/>
-      <c r="AC61" s="32"/>
+      <c r="D61" s="75"/>
+      <c r="E61" s="75"/>
+      <c r="F61" s="75"/>
+      <c r="G61" s="75"/>
+      <c r="H61" s="75"/>
+      <c r="I61" s="75"/>
+      <c r="J61" s="75"/>
+      <c r="K61" s="75"/>
+      <c r="L61" s="75"/>
+      <c r="M61" s="75"/>
+      <c r="N61" s="75"/>
+      <c r="O61" s="75"/>
+      <c r="P61" s="75"/>
+      <c r="Q61" s="75"/>
+      <c r="R61" s="75"/>
+      <c r="S61" s="75"/>
+      <c r="T61" s="75"/>
+      <c r="U61" s="75"/>
+      <c r="V61" s="75"/>
+      <c r="W61" s="75"/>
+      <c r="X61" s="75"/>
+      <c r="Y61" s="75"/>
+      <c r="Z61" s="75"/>
+      <c r="AA61" s="75"/>
+      <c r="AB61" s="75"/>
+      <c r="AC61" s="75"/>
       <c r="AD61" s="29"/>
       <c r="AE61" s="27"/>
       <c r="AF61" s="27"/>
@@ -4023,32 +4029,32 @@
       <c r="A62" s="28"/>
       <c r="B62" s="28"/>
       <c r="C62" s="28"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="32"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="32"/>
-      <c r="I62" s="32"/>
-      <c r="J62" s="32"/>
-      <c r="K62" s="32"/>
-      <c r="L62" s="32"/>
-      <c r="M62" s="32"/>
-      <c r="N62" s="32"/>
-      <c r="O62" s="32"/>
-      <c r="P62" s="32"/>
-      <c r="Q62" s="32"/>
-      <c r="R62" s="32"/>
-      <c r="S62" s="32"/>
-      <c r="T62" s="32"/>
-      <c r="U62" s="32"/>
-      <c r="V62" s="32"/>
-      <c r="W62" s="32"/>
-      <c r="X62" s="32"/>
-      <c r="Y62" s="32"/>
-      <c r="Z62" s="32"/>
-      <c r="AA62" s="32"/>
-      <c r="AB62" s="32"/>
-      <c r="AC62" s="32"/>
+      <c r="D62" s="75"/>
+      <c r="E62" s="75"/>
+      <c r="F62" s="75"/>
+      <c r="G62" s="75"/>
+      <c r="H62" s="75"/>
+      <c r="I62" s="75"/>
+      <c r="J62" s="75"/>
+      <c r="K62" s="75"/>
+      <c r="L62" s="75"/>
+      <c r="M62" s="75"/>
+      <c r="N62" s="75"/>
+      <c r="O62" s="75"/>
+      <c r="P62" s="75"/>
+      <c r="Q62" s="75"/>
+      <c r="R62" s="75"/>
+      <c r="S62" s="75"/>
+      <c r="T62" s="75"/>
+      <c r="U62" s="75"/>
+      <c r="V62" s="75"/>
+      <c r="W62" s="75"/>
+      <c r="X62" s="75"/>
+      <c r="Y62" s="75"/>
+      <c r="Z62" s="75"/>
+      <c r="AA62" s="75"/>
+      <c r="AB62" s="75"/>
+      <c r="AC62" s="75"/>
       <c r="AD62" s="29"/>
       <c r="AE62" s="28"/>
       <c r="AF62" s="28"/>
@@ -4137,32 +4143,32 @@
       <c r="A65" s="28"/>
       <c r="B65" s="28"/>
       <c r="C65" s="28"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="32"/>
-      <c r="I65" s="32"/>
-      <c r="J65" s="32"/>
-      <c r="K65" s="32"/>
-      <c r="L65" s="32"/>
-      <c r="M65" s="32"/>
-      <c r="N65" s="32"/>
-      <c r="O65" s="32"/>
-      <c r="P65" s="32"/>
-      <c r="Q65" s="32"/>
-      <c r="R65" s="32"/>
-      <c r="S65" s="32"/>
-      <c r="T65" s="32"/>
-      <c r="U65" s="32"/>
-      <c r="V65" s="32"/>
-      <c r="W65" s="32"/>
-      <c r="X65" s="32"/>
-      <c r="Y65" s="32"/>
-      <c r="Z65" s="32"/>
-      <c r="AA65" s="32"/>
-      <c r="AB65" s="32"/>
-      <c r="AC65" s="32"/>
+      <c r="D65" s="75"/>
+      <c r="E65" s="75"/>
+      <c r="F65" s="75"/>
+      <c r="G65" s="75"/>
+      <c r="H65" s="75"/>
+      <c r="I65" s="75"/>
+      <c r="J65" s="75"/>
+      <c r="K65" s="75"/>
+      <c r="L65" s="75"/>
+      <c r="M65" s="75"/>
+      <c r="N65" s="75"/>
+      <c r="O65" s="75"/>
+      <c r="P65" s="75"/>
+      <c r="Q65" s="75"/>
+      <c r="R65" s="75"/>
+      <c r="S65" s="75"/>
+      <c r="T65" s="75"/>
+      <c r="U65" s="75"/>
+      <c r="V65" s="75"/>
+      <c r="W65" s="75"/>
+      <c r="X65" s="75"/>
+      <c r="Y65" s="75"/>
+      <c r="Z65" s="75"/>
+      <c r="AA65" s="75"/>
+      <c r="AB65" s="75"/>
+      <c r="AC65" s="75"/>
       <c r="AD65" s="29"/>
       <c r="AE65" s="28"/>
       <c r="AF65" s="28"/>
@@ -4213,32 +4219,32 @@
       <c r="A67" s="28"/>
       <c r="B67" s="28"/>
       <c r="C67" s="30"/>
-      <c r="D67" s="32"/>
-      <c r="E67" s="32"/>
-      <c r="F67" s="32"/>
-      <c r="G67" s="32"/>
-      <c r="H67" s="32"/>
-      <c r="I67" s="32"/>
-      <c r="J67" s="32"/>
-      <c r="K67" s="32"/>
-      <c r="L67" s="32"/>
-      <c r="M67" s="32"/>
-      <c r="N67" s="32"/>
-      <c r="O67" s="32"/>
-      <c r="P67" s="32"/>
-      <c r="Q67" s="32"/>
-      <c r="R67" s="32"/>
-      <c r="S67" s="32"/>
-      <c r="T67" s="32"/>
-      <c r="U67" s="32"/>
-      <c r="V67" s="32"/>
-      <c r="W67" s="32"/>
-      <c r="X67" s="32"/>
-      <c r="Y67" s="32"/>
-      <c r="Z67" s="32"/>
-      <c r="AA67" s="32"/>
-      <c r="AB67" s="32"/>
-      <c r="AC67" s="32"/>
+      <c r="D67" s="75"/>
+      <c r="E67" s="75"/>
+      <c r="F67" s="75"/>
+      <c r="G67" s="75"/>
+      <c r="H67" s="75"/>
+      <c r="I67" s="75"/>
+      <c r="J67" s="75"/>
+      <c r="K67" s="75"/>
+      <c r="L67" s="75"/>
+      <c r="M67" s="75"/>
+      <c r="N67" s="75"/>
+      <c r="O67" s="75"/>
+      <c r="P67" s="75"/>
+      <c r="Q67" s="75"/>
+      <c r="R67" s="75"/>
+      <c r="S67" s="75"/>
+      <c r="T67" s="75"/>
+      <c r="U67" s="75"/>
+      <c r="V67" s="75"/>
+      <c r="W67" s="75"/>
+      <c r="X67" s="75"/>
+      <c r="Y67" s="75"/>
+      <c r="Z67" s="75"/>
+      <c r="AA67" s="75"/>
+      <c r="AB67" s="75"/>
+      <c r="AC67" s="75"/>
       <c r="AD67" s="29"/>
       <c r="AE67" s="28"/>
       <c r="AF67" s="28"/>
@@ -4327,32 +4333,32 @@
       <c r="A70" s="28"/>
       <c r="B70" s="28"/>
       <c r="C70" s="28"/>
-      <c r="D70" s="32"/>
-      <c r="E70" s="32"/>
-      <c r="F70" s="32"/>
-      <c r="G70" s="32"/>
-      <c r="H70" s="32"/>
-      <c r="I70" s="32"/>
-      <c r="J70" s="32"/>
-      <c r="K70" s="32"/>
-      <c r="L70" s="32"/>
-      <c r="M70" s="32"/>
-      <c r="N70" s="32"/>
-      <c r="O70" s="32"/>
-      <c r="P70" s="32"/>
-      <c r="Q70" s="32"/>
-      <c r="R70" s="32"/>
-      <c r="S70" s="32"/>
-      <c r="T70" s="32"/>
-      <c r="U70" s="32"/>
-      <c r="V70" s="32"/>
-      <c r="W70" s="32"/>
-      <c r="X70" s="32"/>
-      <c r="Y70" s="32"/>
-      <c r="Z70" s="32"/>
-      <c r="AA70" s="32"/>
-      <c r="AB70" s="32"/>
-      <c r="AC70" s="32"/>
+      <c r="D70" s="75"/>
+      <c r="E70" s="75"/>
+      <c r="F70" s="75"/>
+      <c r="G70" s="75"/>
+      <c r="H70" s="75"/>
+      <c r="I70" s="75"/>
+      <c r="J70" s="75"/>
+      <c r="K70" s="75"/>
+      <c r="L70" s="75"/>
+      <c r="M70" s="75"/>
+      <c r="N70" s="75"/>
+      <c r="O70" s="75"/>
+      <c r="P70" s="75"/>
+      <c r="Q70" s="75"/>
+      <c r="R70" s="75"/>
+      <c r="S70" s="75"/>
+      <c r="T70" s="75"/>
+      <c r="U70" s="75"/>
+      <c r="V70" s="75"/>
+      <c r="W70" s="75"/>
+      <c r="X70" s="75"/>
+      <c r="Y70" s="75"/>
+      <c r="Z70" s="75"/>
+      <c r="AA70" s="75"/>
+      <c r="AB70" s="75"/>
+      <c r="AC70" s="75"/>
       <c r="AD70" s="29"/>
       <c r="AE70" s="28"/>
       <c r="AF70" s="28"/>
@@ -4364,6 +4370,59 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="69">
+    <mergeCell ref="D70:AC70"/>
+    <mergeCell ref="E55:AJ55"/>
+    <mergeCell ref="E56:AJ56"/>
+    <mergeCell ref="E57:AJ57"/>
+    <mergeCell ref="Q27:AC27"/>
+    <mergeCell ref="Q28:AC28"/>
+    <mergeCell ref="D62:AC62"/>
+    <mergeCell ref="D65:AC65"/>
+    <mergeCell ref="D67:AC67"/>
+    <mergeCell ref="AE27:AI27"/>
+    <mergeCell ref="AE28:AI28"/>
+    <mergeCell ref="D28:P28"/>
+    <mergeCell ref="Q13:AC13"/>
+    <mergeCell ref="D58:AC58"/>
+    <mergeCell ref="D59:AC59"/>
+    <mergeCell ref="D60:AC60"/>
+    <mergeCell ref="D61:AC61"/>
+    <mergeCell ref="Q19:AC19"/>
+    <mergeCell ref="Q20:AC20"/>
+    <mergeCell ref="Q21:AC21"/>
+    <mergeCell ref="Q22:AC22"/>
+    <mergeCell ref="Q23:AC23"/>
+    <mergeCell ref="Q14:AC14"/>
+    <mergeCell ref="Q15:AC15"/>
+    <mergeCell ref="Q16:AC16"/>
+    <mergeCell ref="Q17:AC17"/>
+    <mergeCell ref="Q18:AC18"/>
+    <mergeCell ref="D27:P27"/>
+    <mergeCell ref="D24:P24"/>
+    <mergeCell ref="D25:P25"/>
+    <mergeCell ref="D26:P26"/>
+    <mergeCell ref="AE14:AI14"/>
+    <mergeCell ref="AE15:AI15"/>
+    <mergeCell ref="AE16:AI16"/>
+    <mergeCell ref="AE19:AI19"/>
+    <mergeCell ref="AE23:AI23"/>
+    <mergeCell ref="AE24:AI24"/>
+    <mergeCell ref="AE25:AI25"/>
+    <mergeCell ref="AE17:AI17"/>
+    <mergeCell ref="AE18:AI18"/>
+    <mergeCell ref="AE20:AI20"/>
+    <mergeCell ref="AE21:AI21"/>
+    <mergeCell ref="AE22:AI22"/>
+    <mergeCell ref="D19:P19"/>
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="D21:P21"/>
+    <mergeCell ref="D22:P22"/>
+    <mergeCell ref="D23:P23"/>
+    <mergeCell ref="D14:P14"/>
+    <mergeCell ref="D15:P15"/>
+    <mergeCell ref="D16:P16"/>
+    <mergeCell ref="D17:P17"/>
+    <mergeCell ref="D18:P18"/>
     <mergeCell ref="Q24:AC24"/>
     <mergeCell ref="Q25:AC25"/>
     <mergeCell ref="Q26:AC26"/>
@@ -4380,59 +4439,6 @@
     <mergeCell ref="Z4:AC4"/>
     <mergeCell ref="AG4:AJ4"/>
     <mergeCell ref="AE26:AI26"/>
-    <mergeCell ref="D14:P14"/>
-    <mergeCell ref="D15:P15"/>
-    <mergeCell ref="D16:P16"/>
-    <mergeCell ref="D17:P17"/>
-    <mergeCell ref="D18:P18"/>
-    <mergeCell ref="D19:P19"/>
-    <mergeCell ref="D20:P20"/>
-    <mergeCell ref="D21:P21"/>
-    <mergeCell ref="D22:P22"/>
-    <mergeCell ref="D23:P23"/>
-    <mergeCell ref="D24:P24"/>
-    <mergeCell ref="D25:P25"/>
-    <mergeCell ref="D26:P26"/>
-    <mergeCell ref="AE14:AI14"/>
-    <mergeCell ref="AE15:AI15"/>
-    <mergeCell ref="AE16:AI16"/>
-    <mergeCell ref="AE19:AI19"/>
-    <mergeCell ref="AE23:AI23"/>
-    <mergeCell ref="AE24:AI24"/>
-    <mergeCell ref="AE25:AI25"/>
-    <mergeCell ref="AE17:AI17"/>
-    <mergeCell ref="AE18:AI18"/>
-    <mergeCell ref="AE20:AI20"/>
-    <mergeCell ref="AE21:AI21"/>
-    <mergeCell ref="AE22:AI22"/>
-    <mergeCell ref="Q13:AC13"/>
-    <mergeCell ref="D58:AC58"/>
-    <mergeCell ref="D59:AC59"/>
-    <mergeCell ref="D60:AC60"/>
-    <mergeCell ref="D61:AC61"/>
-    <mergeCell ref="Q19:AC19"/>
-    <mergeCell ref="Q20:AC20"/>
-    <mergeCell ref="Q21:AC21"/>
-    <mergeCell ref="Q22:AC22"/>
-    <mergeCell ref="Q23:AC23"/>
-    <mergeCell ref="Q14:AC14"/>
-    <mergeCell ref="Q15:AC15"/>
-    <mergeCell ref="Q16:AC16"/>
-    <mergeCell ref="Q17:AC17"/>
-    <mergeCell ref="Q18:AC18"/>
-    <mergeCell ref="D27:P27"/>
-    <mergeCell ref="D70:AC70"/>
-    <mergeCell ref="E55:AJ55"/>
-    <mergeCell ref="E56:AJ56"/>
-    <mergeCell ref="E57:AJ57"/>
-    <mergeCell ref="Q27:AC27"/>
-    <mergeCell ref="Q28:AC28"/>
-    <mergeCell ref="D62:AC62"/>
-    <mergeCell ref="D65:AC65"/>
-    <mergeCell ref="D67:AC67"/>
-    <mergeCell ref="AE27:AI27"/>
-    <mergeCell ref="AE28:AI28"/>
-    <mergeCell ref="D28:P28"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.31496062992125984" top="0.39370078740157483" bottom="0.31496062992125984" header="0.15748031496062992" footer="0.15748031496062992"/>
   <pageSetup paperSize="8" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/BáoCáoChoKháchHàng.xlsx
+++ b/BáoCáoChoKháchHàng.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Add2Number" sheetId="33" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Add2Number!$A$1:$AJ$70</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Add2Number!$A$1:$AJ$72</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
   <si>
     <t>Create Date</t>
   </si>
@@ -163,9 +163,6 @@
   </si>
   <si>
     <t>Chuỗi 1 rỗng và chuỗi 2 thỏa điều kiện</t>
-  </si>
-  <si>
-    <t>Chuỗi 1 thỏa điều kiện và chuỗi 2 rỗng</t>
   </si>
 </sst>
 </file>
@@ -985,7 +982,7 @@
     <xf numFmtId="165" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="16" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1065,6 +1062,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="24" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1181,21 +1199,6 @@
     </xf>
     <xf numFmtId="15" fontId="27" fillId="0" borderId="33" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -1298,13 +1301,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>248554</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>45721</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>205739</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1334,20 +1337,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>140253</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>153856</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>20242</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>172866</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="5" name="Picture 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1360,8 +1363,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2735580" y="5250180"/>
-          <a:ext cx="5733333" cy="3590476"/>
+          <a:off x="2369820" y="5295900"/>
+          <a:ext cx="5704762" cy="3914286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1721,10 +1724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ70"/>
+  <dimension ref="A1:AJ72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A18" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26:P26"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13:AC13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.88671875" defaultRowHeight="13.8"/>
@@ -1734,188 +1737,188 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="15" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="37" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="43" t="s">
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="44"/>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="44"/>
-      <c r="AJ1" s="45"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="52"/>
     </row>
     <row r="2" spans="1:36" ht="15" customHeight="1">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="46" t="s">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="47"/>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="47"/>
-      <c r="AI2" s="47"/>
-      <c r="AJ2" s="48"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="54"/>
+      <c r="AG2" s="54"/>
+      <c r="AH2" s="54"/>
+      <c r="AI2" s="54"/>
+      <c r="AJ2" s="55"/>
     </row>
     <row r="3" spans="1:36" ht="15" customHeight="1">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="53" t="s">
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="50" t="s">
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="61" t="s">
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="62"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="69"/>
       <c r="W3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
-      <c r="Z3" s="65">
+      <c r="Z3" s="72">
         <v>43112</v>
       </c>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="66"/>
+      <c r="AA3" s="72"/>
+      <c r="AB3" s="72"/>
+      <c r="AC3" s="73"/>
       <c r="AD3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AE3" s="5"/>
       <c r="AF3" s="6"/>
-      <c r="AG3" s="67" t="s">
+      <c r="AG3" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="AH3" s="68"/>
-      <c r="AI3" s="68"/>
-      <c r="AJ3" s="69"/>
+      <c r="AH3" s="75"/>
+      <c r="AI3" s="75"/>
+      <c r="AJ3" s="76"/>
     </row>
     <row r="4" spans="1:36" ht="15" customHeight="1">
-      <c r="A4" s="51"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="57"/>
-      <c r="V4" s="64"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
+      <c r="S4" s="64"/>
+      <c r="T4" s="64"/>
+      <c r="U4" s="64"/>
+      <c r="V4" s="71"/>
       <c r="W4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
-      <c r="Z4" s="70" t="s">
+      <c r="Z4" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="AA4" s="70"/>
-      <c r="AB4" s="70"/>
-      <c r="AC4" s="71"/>
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="78"/>
       <c r="AD4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="AE4" s="7"/>
       <c r="AF4" s="8"/>
-      <c r="AG4" s="67" t="s">
+      <c r="AG4" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="AH4" s="68"/>
-      <c r="AI4" s="68"/>
-      <c r="AJ4" s="69"/>
+      <c r="AH4" s="75"/>
+      <c r="AI4" s="75"/>
+      <c r="AJ4" s="76"/>
     </row>
     <row r="5" spans="1:36" ht="15.6">
       <c r="A5" s="10">
@@ -2242,65 +2245,65 @@
       <c r="AJ12" s="25"/>
     </row>
     <row r="13" spans="1:36">
-      <c r="Q13" s="32" t="s">
+      <c r="Q13" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="R13" s="32"/>
-      <c r="S13" s="32"/>
-      <c r="T13" s="32"/>
-      <c r="U13" s="32"/>
-      <c r="V13" s="32"/>
-      <c r="W13" s="32"/>
-      <c r="X13" s="32"/>
-      <c r="Y13" s="32"/>
-      <c r="Z13" s="32"/>
-      <c r="AA13" s="32"/>
-      <c r="AB13" s="32"/>
-      <c r="AC13" s="32"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="36"/>
+      <c r="Z13" s="36"/>
+      <c r="AA13" s="36"/>
+      <c r="AB13" s="36"/>
+      <c r="AC13" s="36"/>
     </row>
     <row r="14" spans="1:36" ht="13.8" customHeight="1">
       <c r="B14" s="9"/>
       <c r="C14" s="16">
         <v>1</v>
       </c>
-      <c r="D14" s="72" t="s">
+      <c r="D14" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="72"/>
-      <c r="O14" s="72"/>
-      <c r="P14" s="72"/>
-      <c r="Q14" s="32" t="s">
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="R14" s="32"/>
-      <c r="S14" s="32"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="32"/>
-      <c r="V14" s="32"/>
-      <c r="W14" s="32"/>
-      <c r="X14" s="32"/>
-      <c r="Y14" s="32"/>
-      <c r="Z14" s="32"/>
-      <c r="AA14" s="32"/>
-      <c r="AB14" s="32"/>
-      <c r="AC14" s="32"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="36"/>
+      <c r="Z14" s="36"/>
+      <c r="AA14" s="36"/>
+      <c r="AB14" s="36"/>
+      <c r="AC14" s="36"/>
       <c r="AD14" s="16"/>
-      <c r="AE14" s="32" t="s">
+      <c r="AE14" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="AF14" s="32"/>
-      <c r="AG14" s="32"/>
-      <c r="AH14" s="32"/>
-      <c r="AI14" s="32"/>
+      <c r="AF14" s="36"/>
+      <c r="AG14" s="36"/>
+      <c r="AH14" s="36"/>
+      <c r="AI14" s="36"/>
       <c r="AJ14" s="16"/>
     </row>
     <row r="15" spans="1:36" ht="13.8" customHeight="1">
@@ -2308,616 +2311,614 @@
       <c r="C15" s="16">
         <v>2</v>
       </c>
-      <c r="D15" s="72" t="s">
+      <c r="D15" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="72"/>
-      <c r="O15" s="72"/>
-      <c r="P15" s="72"/>
-      <c r="Q15" s="32" t="s">
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="32"/>
-      <c r="W15" s="32"/>
-      <c r="X15" s="32"/>
-      <c r="Y15" s="32"/>
-      <c r="Z15" s="32"/>
-      <c r="AA15" s="32"/>
-      <c r="AB15" s="32"/>
-      <c r="AC15" s="32"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="36"/>
+      <c r="X15" s="36"/>
+      <c r="Y15" s="36"/>
+      <c r="Z15" s="36"/>
+      <c r="AA15" s="36"/>
+      <c r="AB15" s="36"/>
+      <c r="AC15" s="36"/>
       <c r="AD15" s="16"/>
-      <c r="AE15" s="32" t="s">
+      <c r="AE15" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="AF15" s="32"/>
-      <c r="AG15" s="32"/>
-      <c r="AH15" s="32"/>
-      <c r="AI15" s="32"/>
+      <c r="AF15" s="36"/>
+      <c r="AG15" s="36"/>
+      <c r="AH15" s="36"/>
+      <c r="AI15" s="36"/>
     </row>
     <row r="16" spans="1:36" ht="13.8" customHeight="1">
       <c r="B16" s="9"/>
       <c r="C16" s="16">
         <v>3</v>
       </c>
-      <c r="D16" s="72" t="s">
+      <c r="D16" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="72"/>
-      <c r="O16" s="72"/>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="32" t="s">
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="R16" s="32"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="32"/>
-      <c r="W16" s="32"/>
-      <c r="X16" s="32"/>
-      <c r="Y16" s="32"/>
-      <c r="Z16" s="32"/>
-      <c r="AA16" s="32"/>
-      <c r="AB16" s="32"/>
-      <c r="AC16" s="32"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="36"/>
+      <c r="Z16" s="36"/>
+      <c r="AA16" s="36"/>
+      <c r="AB16" s="36"/>
+      <c r="AC16" s="36"/>
       <c r="AD16" s="16"/>
-      <c r="AE16" s="32" t="s">
+      <c r="AE16" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="AF16" s="32"/>
-      <c r="AG16" s="32"/>
-      <c r="AH16" s="32"/>
-      <c r="AI16" s="32"/>
+      <c r="AF16" s="36"/>
+      <c r="AG16" s="36"/>
+      <c r="AH16" s="36"/>
+      <c r="AI16" s="36"/>
     </row>
     <row r="17" spans="2:35" ht="13.8" customHeight="1">
       <c r="B17" s="9"/>
       <c r="C17" s="16">
         <v>4</v>
       </c>
-      <c r="D17" s="72" t="s">
+      <c r="D17" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="72"/>
-      <c r="N17" s="72"/>
-      <c r="O17" s="72"/>
-      <c r="P17" s="72"/>
-      <c r="Q17" s="32" t="s">
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="R17" s="32"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="32"/>
-      <c r="V17" s="32"/>
-      <c r="W17" s="32"/>
-      <c r="X17" s="32"/>
-      <c r="Y17" s="32"/>
-      <c r="Z17" s="32"/>
-      <c r="AA17" s="32"/>
-      <c r="AB17" s="32"/>
-      <c r="AC17" s="32"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="36"/>
+      <c r="AA17" s="36"/>
+      <c r="AB17" s="36"/>
+      <c r="AC17" s="36"/>
       <c r="AD17" s="16"/>
-      <c r="AE17" s="32" t="s">
+      <c r="AE17" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="AF17" s="32"/>
-      <c r="AG17" s="32"/>
-      <c r="AH17" s="32"/>
-      <c r="AI17" s="32"/>
+      <c r="AF17" s="36"/>
+      <c r="AG17" s="36"/>
+      <c r="AH17" s="36"/>
+      <c r="AI17" s="36"/>
     </row>
     <row r="18" spans="2:35" ht="13.8" customHeight="1">
       <c r="B18" s="9"/>
       <c r="C18" s="16">
         <v>5</v>
       </c>
-      <c r="D18" s="72" t="s">
+      <c r="D18" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="72"/>
-      <c r="O18" s="72"/>
-      <c r="P18" s="72"/>
-      <c r="Q18" s="32" t="s">
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="R18" s="32"/>
-      <c r="S18" s="32"/>
-      <c r="T18" s="32"/>
-      <c r="U18" s="32"/>
-      <c r="V18" s="32"/>
-      <c r="W18" s="32"/>
-      <c r="X18" s="32"/>
-      <c r="Y18" s="32"/>
-      <c r="Z18" s="32"/>
-      <c r="AA18" s="32"/>
-      <c r="AB18" s="32"/>
-      <c r="AC18" s="32"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="36"/>
+      <c r="Y18" s="36"/>
+      <c r="Z18" s="36"/>
+      <c r="AA18" s="36"/>
+      <c r="AB18" s="36"/>
+      <c r="AC18" s="36"/>
       <c r="AD18" s="16"/>
-      <c r="AE18" s="32" t="s">
+      <c r="AE18" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="AF18" s="32"/>
-      <c r="AG18" s="32"/>
-      <c r="AH18" s="32"/>
-      <c r="AI18" s="32"/>
+      <c r="AF18" s="36"/>
+      <c r="AG18" s="36"/>
+      <c r="AH18" s="36"/>
+      <c r="AI18" s="36"/>
     </row>
     <row r="19" spans="2:35" ht="13.8" customHeight="1">
       <c r="B19" s="9"/>
       <c r="C19" s="16">
         <v>6</v>
       </c>
-      <c r="D19" s="72" t="s">
+      <c r="D19" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="72"/>
-      <c r="N19" s="72"/>
-      <c r="O19" s="72"/>
-      <c r="P19" s="72"/>
-      <c r="Q19" s="32" t="s">
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="R19" s="32"/>
-      <c r="S19" s="32"/>
-      <c r="T19" s="32"/>
-      <c r="U19" s="32"/>
-      <c r="V19" s="32"/>
-      <c r="W19" s="32"/>
-      <c r="X19" s="32"/>
-      <c r="Y19" s="32"/>
-      <c r="Z19" s="32"/>
-      <c r="AA19" s="32"/>
-      <c r="AB19" s="32"/>
-      <c r="AC19" s="32"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="36"/>
+      <c r="AA19" s="36"/>
+      <c r="AB19" s="36"/>
+      <c r="AC19" s="36"/>
       <c r="AD19" s="16"/>
-      <c r="AE19" s="32" t="s">
+      <c r="AE19" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="AF19" s="32"/>
-      <c r="AG19" s="32"/>
-      <c r="AH19" s="32"/>
-      <c r="AI19" s="32"/>
+      <c r="AF19" s="36"/>
+      <c r="AG19" s="36"/>
+      <c r="AH19" s="36"/>
+      <c r="AI19" s="36"/>
     </row>
     <row r="20" spans="2:35" ht="15" customHeight="1">
       <c r="B20" s="9"/>
       <c r="C20" s="16">
         <v>7</v>
       </c>
-      <c r="D20" s="72" t="s">
+      <c r="D20" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="72"/>
-      <c r="N20" s="72"/>
-      <c r="O20" s="72"/>
-      <c r="P20" s="72"/>
-      <c r="Q20" s="32" t="s">
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="32"/>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="32"/>
-      <c r="Z20" s="32"/>
-      <c r="AA20" s="32"/>
-      <c r="AB20" s="32"/>
-      <c r="AC20" s="32"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="36"/>
+      <c r="AA20" s="36"/>
+      <c r="AB20" s="36"/>
+      <c r="AC20" s="36"/>
       <c r="AD20" s="16"/>
-      <c r="AE20" s="32" t="s">
+      <c r="AE20" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="AF20" s="32"/>
-      <c r="AG20" s="32"/>
-      <c r="AH20" s="32"/>
-      <c r="AI20" s="32"/>
+      <c r="AF20" s="36"/>
+      <c r="AG20" s="36"/>
+      <c r="AH20" s="36"/>
+      <c r="AI20" s="36"/>
     </row>
     <row r="21" spans="2:35" ht="15" customHeight="1">
       <c r="B21" s="9"/>
       <c r="C21" s="16">
         <v>8</v>
       </c>
-      <c r="D21" s="72" t="s">
+      <c r="D21" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="72"/>
-      <c r="N21" s="72"/>
-      <c r="O21" s="72"/>
-      <c r="P21" s="72"/>
-      <c r="Q21" s="32" t="s">
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="R21" s="32"/>
-      <c r="S21" s="32"/>
-      <c r="T21" s="32"/>
-      <c r="U21" s="32"/>
-      <c r="V21" s="32"/>
-      <c r="W21" s="32"/>
-      <c r="X21" s="32"/>
-      <c r="Y21" s="32"/>
-      <c r="Z21" s="32"/>
-      <c r="AA21" s="32"/>
-      <c r="AB21" s="32"/>
-      <c r="AC21" s="32"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="36"/>
+      <c r="Y21" s="36"/>
+      <c r="Z21" s="36"/>
+      <c r="AA21" s="36"/>
+      <c r="AB21" s="36"/>
+      <c r="AC21" s="36"/>
       <c r="AD21" s="16"/>
-      <c r="AE21" s="32" t="s">
+      <c r="AE21" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="AF21" s="32"/>
-      <c r="AG21" s="32"/>
-      <c r="AH21" s="32"/>
-      <c r="AI21" s="32"/>
+      <c r="AF21" s="36"/>
+      <c r="AG21" s="36"/>
+      <c r="AH21" s="36"/>
+      <c r="AI21" s="36"/>
     </row>
     <row r="22" spans="2:35" ht="13.8" customHeight="1">
       <c r="B22" s="9"/>
       <c r="C22" s="16">
         <v>9</v>
       </c>
-      <c r="D22" s="72" t="s">
+      <c r="D22" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="72"/>
-      <c r="M22" s="72"/>
-      <c r="N22" s="72"/>
-      <c r="O22" s="72"/>
-      <c r="P22" s="72"/>
-      <c r="Q22" s="32" t="s">
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="R22" s="32"/>
-      <c r="S22" s="32"/>
-      <c r="T22" s="32"/>
-      <c r="U22" s="32"/>
-      <c r="V22" s="32"/>
-      <c r="W22" s="32"/>
-      <c r="X22" s="32"/>
-      <c r="Y22" s="32"/>
-      <c r="Z22" s="32"/>
-      <c r="AA22" s="32"/>
-      <c r="AB22" s="32"/>
-      <c r="AC22" s="32"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="36"/>
+      <c r="AA22" s="36"/>
+      <c r="AB22" s="36"/>
+      <c r="AC22" s="36"/>
       <c r="AD22" s="16"/>
-      <c r="AE22" s="32" t="s">
+      <c r="AE22" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="AF22" s="32"/>
-      <c r="AG22" s="32"/>
-      <c r="AH22" s="32"/>
-      <c r="AI22" s="32"/>
+      <c r="AF22" s="36"/>
+      <c r="AG22" s="36"/>
+      <c r="AH22" s="36"/>
+      <c r="AI22" s="36"/>
     </row>
     <row r="23" spans="2:35" ht="13.8" customHeight="1">
       <c r="B23" s="9"/>
       <c r="C23" s="21">
         <v>10</v>
       </c>
-      <c r="D23" s="72" t="s">
+      <c r="D23" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="72"/>
-      <c r="N23" s="72"/>
-      <c r="O23" s="72"/>
-      <c r="P23" s="72"/>
-      <c r="Q23" s="32" t="s">
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="R23" s="32"/>
-      <c r="S23" s="32"/>
-      <c r="T23" s="32"/>
-      <c r="U23" s="32"/>
-      <c r="V23" s="32"/>
-      <c r="W23" s="32"/>
-      <c r="X23" s="32"/>
-      <c r="Y23" s="32"/>
-      <c r="Z23" s="32"/>
-      <c r="AA23" s="32"/>
-      <c r="AB23" s="32"/>
-      <c r="AC23" s="32"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="36"/>
+      <c r="Z23" s="36"/>
+      <c r="AA23" s="36"/>
+      <c r="AB23" s="36"/>
+      <c r="AC23" s="36"/>
       <c r="AD23" s="16"/>
-      <c r="AE23" s="32" t="s">
+      <c r="AE23" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="AF23" s="32"/>
-      <c r="AG23" s="32"/>
-      <c r="AH23" s="32"/>
-      <c r="AI23" s="32"/>
+      <c r="AF23" s="36"/>
+      <c r="AG23" s="36"/>
+      <c r="AH23" s="36"/>
+      <c r="AI23" s="36"/>
     </row>
     <row r="24" spans="2:35" ht="13.8" customHeight="1">
       <c r="B24" s="9"/>
       <c r="C24" s="21">
         <v>11</v>
       </c>
-      <c r="D24" s="72" t="s">
+      <c r="D24" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="72"/>
-      <c r="N24" s="72"/>
-      <c r="O24" s="72"/>
-      <c r="P24" s="72"/>
-      <c r="Q24" s="32" t="s">
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="R24" s="32"/>
-      <c r="S24" s="32"/>
-      <c r="T24" s="32"/>
-      <c r="U24" s="32"/>
-      <c r="V24" s="32"/>
-      <c r="W24" s="32"/>
-      <c r="X24" s="32"/>
-      <c r="Y24" s="32"/>
-      <c r="Z24" s="32"/>
-      <c r="AA24" s="32"/>
-      <c r="AB24" s="32"/>
-      <c r="AC24" s="32"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="36"/>
+      <c r="Y24" s="36"/>
+      <c r="Z24" s="36"/>
+      <c r="AA24" s="36"/>
+      <c r="AB24" s="36"/>
+      <c r="AC24" s="36"/>
       <c r="AD24" s="16"/>
-      <c r="AE24" s="32" t="s">
+      <c r="AE24" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="AF24" s="32"/>
-      <c r="AG24" s="32"/>
-      <c r="AH24" s="32"/>
-      <c r="AI24" s="32"/>
+      <c r="AF24" s="36"/>
+      <c r="AG24" s="36"/>
+      <c r="AH24" s="36"/>
+      <c r="AI24" s="36"/>
     </row>
     <row r="25" spans="2:35" ht="13.8" customHeight="1">
       <c r="B25" s="9"/>
       <c r="C25" s="21">
         <v>12</v>
       </c>
-      <c r="D25" s="72" t="s">
+      <c r="D25" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="72"/>
-      <c r="N25" s="72"/>
-      <c r="O25" s="72"/>
-      <c r="P25" s="72"/>
-      <c r="Q25" s="32" t="s">
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="R25" s="32"/>
-      <c r="S25" s="32"/>
-      <c r="T25" s="32"/>
-      <c r="U25" s="32"/>
-      <c r="V25" s="32"/>
-      <c r="W25" s="32"/>
-      <c r="X25" s="32"/>
-      <c r="Y25" s="32"/>
-      <c r="Z25" s="32"/>
-      <c r="AA25" s="32"/>
-      <c r="AB25" s="32"/>
-      <c r="AC25" s="32"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="36"/>
+      <c r="Z25" s="36"/>
+      <c r="AA25" s="36"/>
+      <c r="AB25" s="36"/>
+      <c r="AC25" s="36"/>
       <c r="AD25" s="16"/>
-      <c r="AE25" s="32" t="s">
+      <c r="AE25" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="AF25" s="32"/>
-      <c r="AG25" s="32"/>
-      <c r="AH25" s="32"/>
-      <c r="AI25" s="32"/>
+      <c r="AF25" s="36"/>
+      <c r="AG25" s="36"/>
+      <c r="AH25" s="36"/>
+      <c r="AI25" s="36"/>
     </row>
     <row r="26" spans="2:35" ht="13.8" customHeight="1">
       <c r="B26" s="9"/>
       <c r="C26" s="21">
         <v>13</v>
       </c>
-      <c r="D26" s="72" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="72"/>
-      <c r="N26" s="72"/>
-      <c r="O26" s="72"/>
-      <c r="P26" s="72"/>
-      <c r="Q26" s="32" t="s">
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="R26" s="32"/>
-      <c r="S26" s="32"/>
-      <c r="T26" s="32"/>
-      <c r="U26" s="32"/>
-      <c r="V26" s="32"/>
-      <c r="W26" s="32"/>
-      <c r="X26" s="32"/>
-      <c r="Y26" s="32"/>
-      <c r="Z26" s="32"/>
-      <c r="AA26" s="32"/>
-      <c r="AB26" s="32"/>
-      <c r="AC26" s="32"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="36"/>
+      <c r="X26" s="36"/>
+      <c r="Y26" s="36"/>
+      <c r="Z26" s="36"/>
+      <c r="AA26" s="36"/>
+      <c r="AB26" s="36"/>
+      <c r="AC26" s="36"/>
       <c r="AD26" s="16"/>
-      <c r="AE26" s="32" t="s">
+      <c r="AE26" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="AF26" s="32"/>
-      <c r="AG26" s="32"/>
-      <c r="AH26" s="32"/>
-      <c r="AI26" s="32"/>
+      <c r="AF26" s="36"/>
+      <c r="AG26" s="36"/>
+      <c r="AH26" s="36"/>
+      <c r="AI26" s="36"/>
     </row>
     <row r="27" spans="2:35" ht="13.8" customHeight="1">
       <c r="B27" s="9"/>
       <c r="C27" s="21">
         <v>14</v>
       </c>
-      <c r="D27" s="72" t="s">
+      <c r="D27" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="72"/>
-      <c r="N27" s="72"/>
-      <c r="O27" s="72"/>
-      <c r="P27" s="72"/>
-      <c r="Q27" s="32" t="s">
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="R27" s="32"/>
-      <c r="S27" s="32"/>
-      <c r="T27" s="32"/>
-      <c r="U27" s="32"/>
-      <c r="V27" s="32"/>
-      <c r="W27" s="32"/>
-      <c r="X27" s="32"/>
-      <c r="Y27" s="32"/>
-      <c r="Z27" s="32"/>
-      <c r="AA27" s="32"/>
-      <c r="AB27" s="32"/>
-      <c r="AC27" s="32"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="36"/>
+      <c r="Y27" s="36"/>
+      <c r="Z27" s="36"/>
+      <c r="AA27" s="36"/>
+      <c r="AB27" s="36"/>
+      <c r="AC27" s="36"/>
       <c r="AD27" s="16"/>
-      <c r="AE27" s="32" t="s">
+      <c r="AE27" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="AF27" s="32"/>
-      <c r="AG27" s="32"/>
-      <c r="AH27" s="32"/>
-      <c r="AI27" s="32"/>
+      <c r="AF27" s="36"/>
+      <c r="AG27" s="36"/>
+      <c r="AH27" s="36"/>
+      <c r="AI27" s="36"/>
     </row>
     <row r="28" spans="2:35" ht="13.8" customHeight="1">
       <c r="B28" s="9"/>
       <c r="C28" s="21">
         <v>15</v>
       </c>
-      <c r="D28" s="76" t="s">
+      <c r="D28" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="76"/>
-      <c r="L28" s="76"/>
-      <c r="M28" s="76"/>
-      <c r="N28" s="76"/>
-      <c r="O28" s="76"/>
-      <c r="P28" s="76"/>
-      <c r="Q28" s="32" t="s">
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="R28" s="32"/>
-      <c r="S28" s="32"/>
-      <c r="T28" s="32"/>
-      <c r="U28" s="32"/>
-      <c r="V28" s="32"/>
-      <c r="W28" s="32"/>
-      <c r="X28" s="32"/>
-      <c r="Y28" s="32"/>
-      <c r="Z28" s="32"/>
-      <c r="AA28" s="32"/>
-      <c r="AB28" s="32"/>
-      <c r="AC28" s="32"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="36"/>
+      <c r="Z28" s="36"/>
+      <c r="AA28" s="36"/>
+      <c r="AB28" s="36"/>
+      <c r="AC28" s="36"/>
       <c r="AD28" s="16"/>
-      <c r="AE28" s="32" t="s">
+      <c r="AE28" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="AF28" s="32"/>
-      <c r="AG28" s="32"/>
-      <c r="AH28" s="32"/>
-      <c r="AI28" s="32"/>
+      <c r="AF28" s="36"/>
+      <c r="AG28" s="36"/>
+      <c r="AH28" s="36"/>
+      <c r="AI28" s="36"/>
     </row>
     <row r="29" spans="2:35" ht="13.8" customHeight="1">
       <c r="B29" s="9"/>
@@ -3498,74 +3499,74 @@
     <row r="45" spans="2:35" ht="13.8" customHeight="1">
       <c r="B45" s="9"/>
       <c r="C45" s="21"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="23"/>
-      <c r="M45" s="23"/>
-      <c r="N45" s="23"/>
-      <c r="O45" s="23"/>
-      <c r="P45" s="23"/>
-      <c r="Q45" s="20"/>
-      <c r="R45" s="20"/>
-      <c r="S45" s="20"/>
-      <c r="T45" s="20"/>
-      <c r="U45" s="20"/>
-      <c r="V45" s="20"/>
-      <c r="W45" s="20"/>
-      <c r="X45" s="20"/>
-      <c r="Y45" s="20"/>
-      <c r="Z45" s="20"/>
-      <c r="AA45" s="20"/>
-      <c r="AB45" s="20"/>
-      <c r="AC45" s="20"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="33"/>
+      <c r="M45" s="33"/>
+      <c r="N45" s="33"/>
+      <c r="O45" s="33"/>
+      <c r="P45" s="33"/>
+      <c r="Q45" s="32"/>
+      <c r="R45" s="32"/>
+      <c r="S45" s="32"/>
+      <c r="T45" s="32"/>
+      <c r="U45" s="32"/>
+      <c r="V45" s="32"/>
+      <c r="W45" s="32"/>
+      <c r="X45" s="32"/>
+      <c r="Y45" s="32"/>
+      <c r="Z45" s="32"/>
+      <c r="AA45" s="32"/>
+      <c r="AB45" s="32"/>
+      <c r="AC45" s="32"/>
       <c r="AD45" s="16"/>
-      <c r="AE45" s="20"/>
-      <c r="AF45" s="20"/>
-      <c r="AG45" s="20"/>
-      <c r="AH45" s="20"/>
-      <c r="AI45" s="20"/>
+      <c r="AE45" s="32"/>
+      <c r="AF45" s="32"/>
+      <c r="AG45" s="32"/>
+      <c r="AH45" s="32"/>
+      <c r="AI45" s="32"/>
     </row>
     <row r="46" spans="2:35" ht="13.8" customHeight="1">
       <c r="B46" s="9"/>
       <c r="C46" s="21"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="23"/>
-      <c r="M46" s="23"/>
-      <c r="N46" s="23"/>
-      <c r="O46" s="23"/>
-      <c r="P46" s="23"/>
-      <c r="Q46" s="20"/>
-      <c r="R46" s="20"/>
-      <c r="S46" s="20"/>
-      <c r="T46" s="20"/>
-      <c r="U46" s="20"/>
-      <c r="V46" s="20"/>
-      <c r="W46" s="20"/>
-      <c r="X46" s="20"/>
-      <c r="Y46" s="20"/>
-      <c r="Z46" s="20"/>
-      <c r="AA46" s="20"/>
-      <c r="AB46" s="20"/>
-      <c r="AC46" s="20"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="33"/>
+      <c r="M46" s="33"/>
+      <c r="N46" s="33"/>
+      <c r="O46" s="33"/>
+      <c r="P46" s="33"/>
+      <c r="Q46" s="32"/>
+      <c r="R46" s="32"/>
+      <c r="S46" s="32"/>
+      <c r="T46" s="32"/>
+      <c r="U46" s="32"/>
+      <c r="V46" s="32"/>
+      <c r="W46" s="32"/>
+      <c r="X46" s="32"/>
+      <c r="Y46" s="32"/>
+      <c r="Z46" s="32"/>
+      <c r="AA46" s="32"/>
+      <c r="AB46" s="32"/>
+      <c r="AC46" s="32"/>
       <c r="AD46" s="16"/>
-      <c r="AE46" s="20"/>
-      <c r="AF46" s="20"/>
-      <c r="AG46" s="20"/>
-      <c r="AH46" s="20"/>
-      <c r="AI46" s="20"/>
+      <c r="AE46" s="32"/>
+      <c r="AF46" s="32"/>
+      <c r="AG46" s="32"/>
+      <c r="AH46" s="32"/>
+      <c r="AI46" s="32"/>
     </row>
     <row r="47" spans="2:35" ht="13.8" customHeight="1">
       <c r="B47" s="9"/>
@@ -3675,462 +3676,458 @@
       <c r="AH49" s="20"/>
       <c r="AI49" s="20"/>
     </row>
-    <row r="50" spans="1:36">
+    <row r="50" spans="1:36" ht="13.8" customHeight="1">
       <c r="B50" s="9"/>
       <c r="C50" s="21"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="22"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="22"/>
-      <c r="O50" s="22"/>
-      <c r="P50" s="22"/>
-      <c r="Q50" s="19"/>
-      <c r="R50" s="19"/>
-      <c r="S50" s="19"/>
-      <c r="T50" s="19"/>
-      <c r="U50" s="19"/>
-      <c r="V50" s="19"/>
-      <c r="W50" s="19"/>
-      <c r="X50" s="19"/>
-      <c r="Y50" s="19"/>
-      <c r="Z50" s="19"/>
-      <c r="AA50" s="19"/>
-      <c r="AB50" s="19"/>
-      <c r="AC50" s="19"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="23"/>
+      <c r="M50" s="23"/>
+      <c r="N50" s="23"/>
+      <c r="O50" s="23"/>
+      <c r="P50" s="23"/>
+      <c r="Q50" s="20"/>
+      <c r="R50" s="20"/>
+      <c r="S50" s="20"/>
+      <c r="T50" s="20"/>
+      <c r="U50" s="20"/>
+      <c r="V50" s="20"/>
+      <c r="W50" s="20"/>
+      <c r="X50" s="20"/>
+      <c r="Y50" s="20"/>
+      <c r="Z50" s="20"/>
+      <c r="AA50" s="20"/>
+      <c r="AB50" s="20"/>
+      <c r="AC50" s="20"/>
       <c r="AD50" s="16"/>
-      <c r="AE50" s="19"/>
-      <c r="AF50" s="19"/>
-      <c r="AG50" s="19"/>
-      <c r="AH50" s="19"/>
-      <c r="AI50" s="19"/>
-    </row>
-    <row r="51" spans="1:36" ht="15.6">
-      <c r="A51" s="10">
+      <c r="AE50" s="20"/>
+      <c r="AF50" s="20"/>
+      <c r="AG50" s="20"/>
+      <c r="AH50" s="20"/>
+      <c r="AI50" s="20"/>
+    </row>
+    <row r="51" spans="1:36" ht="13.8" customHeight="1">
+      <c r="B51" s="9"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="23"/>
+      <c r="L51" s="23"/>
+      <c r="M51" s="23"/>
+      <c r="N51" s="23"/>
+      <c r="O51" s="23"/>
+      <c r="P51" s="23"/>
+      <c r="Q51" s="20"/>
+      <c r="R51" s="20"/>
+      <c r="S51" s="20"/>
+      <c r="T51" s="20"/>
+      <c r="U51" s="20"/>
+      <c r="V51" s="20"/>
+      <c r="W51" s="20"/>
+      <c r="X51" s="20"/>
+      <c r="Y51" s="20"/>
+      <c r="Z51" s="20"/>
+      <c r="AA51" s="20"/>
+      <c r="AB51" s="20"/>
+      <c r="AC51" s="20"/>
+      <c r="AD51" s="16"/>
+      <c r="AE51" s="20"/>
+      <c r="AF51" s="20"/>
+      <c r="AG51" s="20"/>
+      <c r="AH51" s="20"/>
+      <c r="AI51" s="20"/>
+    </row>
+    <row r="52" spans="1:36">
+      <c r="B52" s="9"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="22"/>
+      <c r="O52" s="22"/>
+      <c r="P52" s="22"/>
+      <c r="Q52" s="19"/>
+      <c r="R52" s="19"/>
+      <c r="S52" s="19"/>
+      <c r="T52" s="19"/>
+      <c r="U52" s="19"/>
+      <c r="V52" s="19"/>
+      <c r="W52" s="19"/>
+      <c r="X52" s="19"/>
+      <c r="Y52" s="19"/>
+      <c r="Z52" s="19"/>
+      <c r="AA52" s="19"/>
+      <c r="AB52" s="19"/>
+      <c r="AC52" s="19"/>
+      <c r="AD52" s="16"/>
+      <c r="AE52" s="19"/>
+      <c r="AF52" s="19"/>
+      <c r="AG52" s="19"/>
+      <c r="AH52" s="19"/>
+      <c r="AI52" s="19"/>
+    </row>
+    <row r="53" spans="1:36" ht="15.6">
+      <c r="A53" s="10">
         <v>3</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B53" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="11"/>
-      <c r="K51" s="11"/>
-      <c r="L51" s="11"/>
-      <c r="M51" s="11"/>
-      <c r="N51" s="11"/>
-      <c r="O51" s="11"/>
-      <c r="P51" s="11"/>
-      <c r="Q51" s="11"/>
-      <c r="R51" s="11"/>
-      <c r="S51" s="11"/>
-      <c r="T51" s="11"/>
-      <c r="U51" s="11"/>
-      <c r="V51" s="11"/>
-      <c r="W51" s="11"/>
-      <c r="X51" s="11"/>
-      <c r="Y51" s="11"/>
-      <c r="Z51" s="11"/>
-      <c r="AA51" s="11"/>
-      <c r="AB51" s="11"/>
-      <c r="AC51" s="11"/>
-      <c r="AD51" s="11"/>
-      <c r="AE51" s="11"/>
-      <c r="AF51" s="11"/>
-      <c r="AG51" s="11"/>
-      <c r="AH51" s="11"/>
-      <c r="AI51" s="11"/>
-      <c r="AJ51" s="11"/>
-    </row>
-    <row r="53" spans="1:36">
-      <c r="C53" s="18">
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="11"/>
+      <c r="S53" s="11"/>
+      <c r="T53" s="11"/>
+      <c r="U53" s="11"/>
+      <c r="V53" s="11"/>
+      <c r="W53" s="11"/>
+      <c r="X53" s="11"/>
+      <c r="Y53" s="11"/>
+      <c r="Z53" s="11"/>
+      <c r="AA53" s="11"/>
+      <c r="AB53" s="11"/>
+      <c r="AC53" s="11"/>
+      <c r="AD53" s="11"/>
+      <c r="AE53" s="11"/>
+      <c r="AF53" s="11"/>
+      <c r="AG53" s="11"/>
+      <c r="AH53" s="11"/>
+      <c r="AI53" s="11"/>
+      <c r="AJ53" s="11"/>
+    </row>
+    <row r="55" spans="1:36">
+      <c r="C55" s="18">
         <v>1</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D55" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:36">
-      <c r="C54" s="17">
+    <row r="56" spans="1:36">
+      <c r="C56" s="17">
         <v>2</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D56" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="1:36" ht="13.8" customHeight="1">
-      <c r="D55" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E55" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="F55" s="76"/>
-      <c r="G55" s="76"/>
-      <c r="H55" s="76"/>
-      <c r="I55" s="76"/>
-      <c r="J55" s="76"/>
-      <c r="K55" s="76"/>
-      <c r="L55" s="76"/>
-      <c r="M55" s="76"/>
-      <c r="N55" s="76"/>
-      <c r="O55" s="76"/>
-      <c r="P55" s="76"/>
-      <c r="Q55" s="76"/>
-      <c r="R55" s="76"/>
-      <c r="S55" s="76"/>
-      <c r="T55" s="76"/>
-      <c r="U55" s="76"/>
-      <c r="V55" s="76"/>
-      <c r="W55" s="76"/>
-      <c r="X55" s="76"/>
-      <c r="Y55" s="76"/>
-      <c r="Z55" s="76"/>
-      <c r="AA55" s="76"/>
-      <c r="AB55" s="76"/>
-      <c r="AC55" s="76"/>
-      <c r="AD55" s="76"/>
-      <c r="AE55" s="76"/>
-      <c r="AF55" s="76"/>
-      <c r="AG55" s="76"/>
-      <c r="AH55" s="76"/>
-      <c r="AI55" s="76"/>
-      <c r="AJ55" s="76"/>
-    </row>
-    <row r="56" spans="1:36">
-      <c r="D56" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E56" s="76" t="s">
-        <v>42</v>
-      </c>
-      <c r="F56" s="76"/>
-      <c r="G56" s="76"/>
-      <c r="H56" s="76"/>
-      <c r="I56" s="76"/>
-      <c r="J56" s="76"/>
-      <c r="K56" s="76"/>
-      <c r="L56" s="76"/>
-      <c r="M56" s="76"/>
-      <c r="N56" s="76"/>
-      <c r="O56" s="76"/>
-      <c r="P56" s="76"/>
-      <c r="Q56" s="76"/>
-      <c r="R56" s="76"/>
-      <c r="S56" s="76"/>
-      <c r="T56" s="76"/>
-      <c r="U56" s="76"/>
-      <c r="V56" s="76"/>
-      <c r="W56" s="76"/>
-      <c r="X56" s="76"/>
-      <c r="Y56" s="76"/>
-      <c r="Z56" s="76"/>
-      <c r="AA56" s="76"/>
-      <c r="AB56" s="76"/>
-      <c r="AC56" s="76"/>
-      <c r="AD56" s="76"/>
-      <c r="AE56" s="76"/>
-      <c r="AF56" s="76"/>
-      <c r="AG56" s="76"/>
-      <c r="AH56" s="76"/>
-      <c r="AI56" s="76"/>
-      <c r="AJ56" s="76"/>
-    </row>
-    <row r="57" spans="1:36">
+    <row r="57" spans="1:36" ht="13.8" customHeight="1">
       <c r="D57" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E57" s="76" t="s">
+      <c r="E57" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="35"/>
+      <c r="J57" s="35"/>
+      <c r="K57" s="35"/>
+      <c r="L57" s="35"/>
+      <c r="M57" s="35"/>
+      <c r="N57" s="35"/>
+      <c r="O57" s="35"/>
+      <c r="P57" s="35"/>
+      <c r="Q57" s="35"/>
+      <c r="R57" s="35"/>
+      <c r="S57" s="35"/>
+      <c r="T57" s="35"/>
+      <c r="U57" s="35"/>
+      <c r="V57" s="35"/>
+      <c r="W57" s="35"/>
+      <c r="X57" s="35"/>
+      <c r="Y57" s="35"/>
+      <c r="Z57" s="35"/>
+      <c r="AA57" s="35"/>
+      <c r="AB57" s="35"/>
+      <c r="AC57" s="35"/>
+      <c r="AD57" s="35"/>
+      <c r="AE57" s="35"/>
+      <c r="AF57" s="35"/>
+      <c r="AG57" s="35"/>
+      <c r="AH57" s="35"/>
+      <c r="AI57" s="35"/>
+      <c r="AJ57" s="35"/>
+    </row>
+    <row r="58" spans="1:36">
+      <c r="D58" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E58" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="35"/>
+      <c r="J58" s="35"/>
+      <c r="K58" s="35"/>
+      <c r="L58" s="35"/>
+      <c r="M58" s="35"/>
+      <c r="N58" s="35"/>
+      <c r="O58" s="35"/>
+      <c r="P58" s="35"/>
+      <c r="Q58" s="35"/>
+      <c r="R58" s="35"/>
+      <c r="S58" s="35"/>
+      <c r="T58" s="35"/>
+      <c r="U58" s="35"/>
+      <c r="V58" s="35"/>
+      <c r="W58" s="35"/>
+      <c r="X58" s="35"/>
+      <c r="Y58" s="35"/>
+      <c r="Z58" s="35"/>
+      <c r="AA58" s="35"/>
+      <c r="AB58" s="35"/>
+      <c r="AC58" s="35"/>
+      <c r="AD58" s="35"/>
+      <c r="AE58" s="35"/>
+      <c r="AF58" s="35"/>
+      <c r="AG58" s="35"/>
+      <c r="AH58" s="35"/>
+      <c r="AI58" s="35"/>
+      <c r="AJ58" s="35"/>
+    </row>
+    <row r="59" spans="1:36">
+      <c r="D59" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E59" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="F57" s="76"/>
-      <c r="G57" s="76"/>
-      <c r="H57" s="76"/>
-      <c r="I57" s="76"/>
-      <c r="J57" s="76"/>
-      <c r="K57" s="76"/>
-      <c r="L57" s="76"/>
-      <c r="M57" s="76"/>
-      <c r="N57" s="76"/>
-      <c r="O57" s="76"/>
-      <c r="P57" s="76"/>
-      <c r="Q57" s="76"/>
-      <c r="R57" s="76"/>
-      <c r="S57" s="76"/>
-      <c r="T57" s="76"/>
-      <c r="U57" s="76"/>
-      <c r="V57" s="76"/>
-      <c r="W57" s="76"/>
-      <c r="X57" s="76"/>
-      <c r="Y57" s="76"/>
-      <c r="Z57" s="76"/>
-      <c r="AA57" s="76"/>
-      <c r="AB57" s="76"/>
-      <c r="AC57" s="76"/>
-      <c r="AD57" s="76"/>
-      <c r="AE57" s="76"/>
-      <c r="AF57" s="76"/>
-      <c r="AG57" s="76"/>
-      <c r="AH57" s="76"/>
-      <c r="AI57" s="76"/>
-      <c r="AJ57" s="76"/>
-    </row>
-    <row r="58" spans="1:36">
-      <c r="C58">
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="35"/>
+      <c r="M59" s="35"/>
+      <c r="N59" s="35"/>
+      <c r="O59" s="35"/>
+      <c r="P59" s="35"/>
+      <c r="Q59" s="35"/>
+      <c r="R59" s="35"/>
+      <c r="S59" s="35"/>
+      <c r="T59" s="35"/>
+      <c r="U59" s="35"/>
+      <c r="V59" s="35"/>
+      <c r="W59" s="35"/>
+      <c r="X59" s="35"/>
+      <c r="Y59" s="35"/>
+      <c r="Z59" s="35"/>
+      <c r="AA59" s="35"/>
+      <c r="AB59" s="35"/>
+      <c r="AC59" s="35"/>
+      <c r="AD59" s="35"/>
+      <c r="AE59" s="35"/>
+      <c r="AF59" s="35"/>
+      <c r="AG59" s="35"/>
+      <c r="AH59" s="35"/>
+      <c r="AI59" s="35"/>
+      <c r="AJ59" s="35"/>
+    </row>
+    <row r="60" spans="1:36">
+      <c r="C60">
         <v>3</v>
       </c>
-      <c r="D58" s="73" t="s">
+      <c r="D60" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="E58" s="73"/>
-      <c r="F58" s="73"/>
-      <c r="G58" s="73"/>
-      <c r="H58" s="73"/>
-      <c r="I58" s="73"/>
-      <c r="J58" s="73"/>
-      <c r="K58" s="73"/>
-      <c r="L58" s="73"/>
-      <c r="M58" s="73"/>
-      <c r="N58" s="73"/>
-      <c r="O58" s="73"/>
-      <c r="P58" s="73"/>
-      <c r="Q58" s="73"/>
-      <c r="R58" s="73"/>
-      <c r="S58" s="73"/>
-      <c r="T58" s="73"/>
-      <c r="U58" s="73"/>
-      <c r="V58" s="73"/>
-      <c r="W58" s="73"/>
-      <c r="X58" s="73"/>
-      <c r="Y58" s="73"/>
-      <c r="Z58" s="73"/>
-      <c r="AA58" s="73"/>
-      <c r="AB58" s="73"/>
-      <c r="AC58" s="73"/>
-      <c r="AD58" s="26"/>
-    </row>
-    <row r="59" spans="1:36">
-      <c r="C59" s="17"/>
-      <c r="D59" s="74"/>
-      <c r="E59" s="74"/>
-      <c r="F59" s="74"/>
-      <c r="G59" s="74"/>
-      <c r="H59" s="74"/>
-      <c r="I59" s="74"/>
-      <c r="J59" s="74"/>
-      <c r="K59" s="74"/>
-      <c r="L59" s="74"/>
-      <c r="M59" s="74"/>
-      <c r="N59" s="74"/>
-      <c r="O59" s="74"/>
-      <c r="P59" s="74"/>
-      <c r="Q59" s="74"/>
-      <c r="R59" s="74"/>
-      <c r="S59" s="74"/>
-      <c r="T59" s="74"/>
-      <c r="U59" s="74"/>
-      <c r="V59" s="74"/>
-      <c r="W59" s="74"/>
-      <c r="X59" s="74"/>
-      <c r="Y59" s="74"/>
-      <c r="Z59" s="74"/>
-      <c r="AA59" s="74"/>
-      <c r="AB59" s="74"/>
-      <c r="AC59" s="74"/>
-      <c r="AD59" s="26"/>
-    </row>
-    <row r="60" spans="1:36">
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="74"/>
-      <c r="E60" s="74"/>
-      <c r="F60" s="74"/>
-      <c r="G60" s="74"/>
-      <c r="H60" s="74"/>
-      <c r="I60" s="74"/>
-      <c r="J60" s="74"/>
-      <c r="K60" s="74"/>
-      <c r="L60" s="74"/>
-      <c r="M60" s="74"/>
-      <c r="N60" s="74"/>
-      <c r="O60" s="74"/>
-      <c r="P60" s="74"/>
-      <c r="Q60" s="74"/>
-      <c r="R60" s="74"/>
-      <c r="S60" s="74"/>
-      <c r="T60" s="74"/>
-      <c r="U60" s="74"/>
-      <c r="V60" s="74"/>
-      <c r="W60" s="74"/>
-      <c r="X60" s="74"/>
-      <c r="Y60" s="74"/>
-      <c r="Z60" s="74"/>
-      <c r="AA60" s="74"/>
-      <c r="AB60" s="74"/>
-      <c r="AC60" s="74"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="37"/>
+      <c r="L60" s="37"/>
+      <c r="M60" s="37"/>
+      <c r="N60" s="37"/>
+      <c r="O60" s="37"/>
+      <c r="P60" s="37"/>
+      <c r="Q60" s="37"/>
+      <c r="R60" s="37"/>
+      <c r="S60" s="37"/>
+      <c r="T60" s="37"/>
+      <c r="U60" s="37"/>
+      <c r="V60" s="37"/>
+      <c r="W60" s="37"/>
+      <c r="X60" s="37"/>
+      <c r="Y60" s="37"/>
+      <c r="Z60" s="37"/>
+      <c r="AA60" s="37"/>
+      <c r="AB60" s="37"/>
+      <c r="AC60" s="37"/>
       <c r="AD60" s="26"/>
-      <c r="AE60" s="16"/>
-      <c r="AF60" s="16"/>
-      <c r="AG60" s="16"/>
-      <c r="AH60" s="16"/>
-      <c r="AI60" s="16"/>
-      <c r="AJ60" s="16"/>
     </row>
     <row r="61" spans="1:36">
-      <c r="A61" s="28"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="75"/>
-      <c r="E61" s="75"/>
-      <c r="F61" s="75"/>
-      <c r="G61" s="75"/>
-      <c r="H61" s="75"/>
-      <c r="I61" s="75"/>
-      <c r="J61" s="75"/>
-      <c r="K61" s="75"/>
-      <c r="L61" s="75"/>
-      <c r="M61" s="75"/>
-      <c r="N61" s="75"/>
-      <c r="O61" s="75"/>
-      <c r="P61" s="75"/>
-      <c r="Q61" s="75"/>
-      <c r="R61" s="75"/>
-      <c r="S61" s="75"/>
-      <c r="T61" s="75"/>
-      <c r="U61" s="75"/>
-      <c r="V61" s="75"/>
-      <c r="W61" s="75"/>
-      <c r="X61" s="75"/>
-      <c r="Y61" s="75"/>
-      <c r="Z61" s="75"/>
-      <c r="AA61" s="75"/>
-      <c r="AB61" s="75"/>
-      <c r="AC61" s="75"/>
-      <c r="AD61" s="29"/>
-      <c r="AE61" s="27"/>
-      <c r="AF61" s="27"/>
-      <c r="AG61" s="27"/>
-      <c r="AH61" s="27"/>
-      <c r="AI61" s="27"/>
-      <c r="AJ61" s="27"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="38"/>
+      <c r="K61" s="38"/>
+      <c r="L61" s="38"/>
+      <c r="M61" s="38"/>
+      <c r="N61" s="38"/>
+      <c r="O61" s="38"/>
+      <c r="P61" s="38"/>
+      <c r="Q61" s="38"/>
+      <c r="R61" s="38"/>
+      <c r="S61" s="38"/>
+      <c r="T61" s="38"/>
+      <c r="U61" s="38"/>
+      <c r="V61" s="38"/>
+      <c r="W61" s="38"/>
+      <c r="X61" s="38"/>
+      <c r="Y61" s="38"/>
+      <c r="Z61" s="38"/>
+      <c r="AA61" s="38"/>
+      <c r="AB61" s="38"/>
+      <c r="AC61" s="38"/>
+      <c r="AD61" s="26"/>
     </row>
     <row r="62" spans="1:36">
-      <c r="A62" s="28"/>
-      <c r="B62" s="28"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="75"/>
-      <c r="E62" s="75"/>
-      <c r="F62" s="75"/>
-      <c r="G62" s="75"/>
-      <c r="H62" s="75"/>
-      <c r="I62" s="75"/>
-      <c r="J62" s="75"/>
-      <c r="K62" s="75"/>
-      <c r="L62" s="75"/>
-      <c r="M62" s="75"/>
-      <c r="N62" s="75"/>
-      <c r="O62" s="75"/>
-      <c r="P62" s="75"/>
-      <c r="Q62" s="75"/>
-      <c r="R62" s="75"/>
-      <c r="S62" s="75"/>
-      <c r="T62" s="75"/>
-      <c r="U62" s="75"/>
-      <c r="V62" s="75"/>
-      <c r="W62" s="75"/>
-      <c r="X62" s="75"/>
-      <c r="Y62" s="75"/>
-      <c r="Z62" s="75"/>
-      <c r="AA62" s="75"/>
-      <c r="AB62" s="75"/>
-      <c r="AC62" s="75"/>
-      <c r="AD62" s="29"/>
-      <c r="AE62" s="28"/>
-      <c r="AF62" s="28"/>
-      <c r="AG62" s="28"/>
-      <c r="AH62" s="28"/>
-      <c r="AI62" s="28"/>
-      <c r="AJ62" s="28"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="38"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="38"/>
+      <c r="J62" s="38"/>
+      <c r="K62" s="38"/>
+      <c r="L62" s="38"/>
+      <c r="M62" s="38"/>
+      <c r="N62" s="38"/>
+      <c r="O62" s="38"/>
+      <c r="P62" s="38"/>
+      <c r="Q62" s="38"/>
+      <c r="R62" s="38"/>
+      <c r="S62" s="38"/>
+      <c r="T62" s="38"/>
+      <c r="U62" s="38"/>
+      <c r="V62" s="38"/>
+      <c r="W62" s="38"/>
+      <c r="X62" s="38"/>
+      <c r="Y62" s="38"/>
+      <c r="Z62" s="38"/>
+      <c r="AA62" s="38"/>
+      <c r="AB62" s="38"/>
+      <c r="AC62" s="38"/>
+      <c r="AD62" s="26"/>
+      <c r="AE62" s="16"/>
+      <c r="AF62" s="16"/>
+      <c r="AG62" s="16"/>
+      <c r="AH62" s="16"/>
+      <c r="AI62" s="16"/>
+      <c r="AJ62" s="16"/>
     </row>
     <row r="63" spans="1:36">
       <c r="A63" s="28"/>
-      <c r="B63" s="28"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="31"/>
-      <c r="E63" s="31"/>
-      <c r="F63" s="31"/>
-      <c r="G63" s="31"/>
-      <c r="H63" s="31"/>
-      <c r="I63" s="31"/>
-      <c r="J63" s="31"/>
-      <c r="K63" s="31"/>
-      <c r="L63" s="31"/>
-      <c r="M63" s="31"/>
-      <c r="N63" s="31"/>
-      <c r="O63" s="31"/>
-      <c r="P63" s="31"/>
-      <c r="Q63" s="31"/>
-      <c r="R63" s="31"/>
-      <c r="S63" s="31"/>
-      <c r="T63" s="31"/>
-      <c r="U63" s="31"/>
-      <c r="V63" s="31"/>
-      <c r="W63" s="31"/>
-      <c r="X63" s="31"/>
-      <c r="Y63" s="31"/>
-      <c r="Z63" s="31"/>
-      <c r="AA63" s="31"/>
-      <c r="AB63" s="31"/>
-      <c r="AC63" s="31"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="34"/>
+      <c r="I63" s="34"/>
+      <c r="J63" s="34"/>
+      <c r="K63" s="34"/>
+      <c r="L63" s="34"/>
+      <c r="M63" s="34"/>
+      <c r="N63" s="34"/>
+      <c r="O63" s="34"/>
+      <c r="P63" s="34"/>
+      <c r="Q63" s="34"/>
+      <c r="R63" s="34"/>
+      <c r="S63" s="34"/>
+      <c r="T63" s="34"/>
+      <c r="U63" s="34"/>
+      <c r="V63" s="34"/>
+      <c r="W63" s="34"/>
+      <c r="X63" s="34"/>
+      <c r="Y63" s="34"/>
+      <c r="Z63" s="34"/>
+      <c r="AA63" s="34"/>
+      <c r="AB63" s="34"/>
+      <c r="AC63" s="34"/>
       <c r="AD63" s="29"/>
-      <c r="AE63" s="28"/>
-      <c r="AF63" s="28"/>
-      <c r="AG63" s="28"/>
-      <c r="AH63" s="28"/>
-      <c r="AI63" s="28"/>
-      <c r="AJ63" s="28"/>
+      <c r="AE63" s="27"/>
+      <c r="AF63" s="27"/>
+      <c r="AG63" s="27"/>
+      <c r="AH63" s="27"/>
+      <c r="AI63" s="27"/>
+      <c r="AJ63" s="27"/>
     </row>
     <row r="64" spans="1:36">
       <c r="A64" s="28"/>
       <c r="B64" s="28"/>
       <c r="C64" s="28"/>
-      <c r="D64" s="31"/>
-      <c r="E64" s="31"/>
-      <c r="F64" s="31"/>
-      <c r="G64" s="31"/>
-      <c r="H64" s="31"/>
-      <c r="I64" s="31"/>
-      <c r="J64" s="31"/>
-      <c r="K64" s="31"/>
-      <c r="L64" s="31"/>
-      <c r="M64" s="31"/>
-      <c r="N64" s="31"/>
-      <c r="O64" s="31"/>
-      <c r="P64" s="31"/>
-      <c r="Q64" s="31"/>
-      <c r="R64" s="31"/>
-      <c r="S64" s="31"/>
-      <c r="T64" s="31"/>
-      <c r="U64" s="31"/>
-      <c r="V64" s="31"/>
-      <c r="W64" s="31"/>
-      <c r="X64" s="31"/>
-      <c r="Y64" s="31"/>
-      <c r="Z64" s="31"/>
-      <c r="AA64" s="31"/>
-      <c r="AB64" s="31"/>
-      <c r="AC64" s="31"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="34"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="34"/>
+      <c r="I64" s="34"/>
+      <c r="J64" s="34"/>
+      <c r="K64" s="34"/>
+      <c r="L64" s="34"/>
+      <c r="M64" s="34"/>
+      <c r="N64" s="34"/>
+      <c r="O64" s="34"/>
+      <c r="P64" s="34"/>
+      <c r="Q64" s="34"/>
+      <c r="R64" s="34"/>
+      <c r="S64" s="34"/>
+      <c r="T64" s="34"/>
+      <c r="U64" s="34"/>
+      <c r="V64" s="34"/>
+      <c r="W64" s="34"/>
+      <c r="X64" s="34"/>
+      <c r="Y64" s="34"/>
+      <c r="Z64" s="34"/>
+      <c r="AA64" s="34"/>
+      <c r="AB64" s="34"/>
+      <c r="AC64" s="34"/>
       <c r="AD64" s="29"/>
       <c r="AE64" s="28"/>
       <c r="AF64" s="28"/>
@@ -4143,32 +4140,32 @@
       <c r="A65" s="28"/>
       <c r="B65" s="28"/>
       <c r="C65" s="28"/>
-      <c r="D65" s="75"/>
-      <c r="E65" s="75"/>
-      <c r="F65" s="75"/>
-      <c r="G65" s="75"/>
-      <c r="H65" s="75"/>
-      <c r="I65" s="75"/>
-      <c r="J65" s="75"/>
-      <c r="K65" s="75"/>
-      <c r="L65" s="75"/>
-      <c r="M65" s="75"/>
-      <c r="N65" s="75"/>
-      <c r="O65" s="75"/>
-      <c r="P65" s="75"/>
-      <c r="Q65" s="75"/>
-      <c r="R65" s="75"/>
-      <c r="S65" s="75"/>
-      <c r="T65" s="75"/>
-      <c r="U65" s="75"/>
-      <c r="V65" s="75"/>
-      <c r="W65" s="75"/>
-      <c r="X65" s="75"/>
-      <c r="Y65" s="75"/>
-      <c r="Z65" s="75"/>
-      <c r="AA65" s="75"/>
-      <c r="AB65" s="75"/>
-      <c r="AC65" s="75"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="31"/>
+      <c r="K65" s="31"/>
+      <c r="L65" s="31"/>
+      <c r="M65" s="31"/>
+      <c r="N65" s="31"/>
+      <c r="O65" s="31"/>
+      <c r="P65" s="31"/>
+      <c r="Q65" s="31"/>
+      <c r="R65" s="31"/>
+      <c r="S65" s="31"/>
+      <c r="T65" s="31"/>
+      <c r="U65" s="31"/>
+      <c r="V65" s="31"/>
+      <c r="W65" s="31"/>
+      <c r="X65" s="31"/>
+      <c r="Y65" s="31"/>
+      <c r="Z65" s="31"/>
+      <c r="AA65" s="31"/>
+      <c r="AB65" s="31"/>
+      <c r="AC65" s="31"/>
       <c r="AD65" s="29"/>
       <c r="AE65" s="28"/>
       <c r="AF65" s="28"/>
@@ -4218,33 +4215,33 @@
     <row r="67" spans="1:36">
       <c r="A67" s="28"/>
       <c r="B67" s="28"/>
-      <c r="C67" s="30"/>
-      <c r="D67" s="75"/>
-      <c r="E67" s="75"/>
-      <c r="F67" s="75"/>
-      <c r="G67" s="75"/>
-      <c r="H67" s="75"/>
-      <c r="I67" s="75"/>
-      <c r="J67" s="75"/>
-      <c r="K67" s="75"/>
-      <c r="L67" s="75"/>
-      <c r="M67" s="75"/>
-      <c r="N67" s="75"/>
-      <c r="O67" s="75"/>
-      <c r="P67" s="75"/>
-      <c r="Q67" s="75"/>
-      <c r="R67" s="75"/>
-      <c r="S67" s="75"/>
-      <c r="T67" s="75"/>
-      <c r="U67" s="75"/>
-      <c r="V67" s="75"/>
-      <c r="W67" s="75"/>
-      <c r="X67" s="75"/>
-      <c r="Y67" s="75"/>
-      <c r="Z67" s="75"/>
-      <c r="AA67" s="75"/>
-      <c r="AB67" s="75"/>
-      <c r="AC67" s="75"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="34"/>
+      <c r="G67" s="34"/>
+      <c r="H67" s="34"/>
+      <c r="I67" s="34"/>
+      <c r="J67" s="34"/>
+      <c r="K67" s="34"/>
+      <c r="L67" s="34"/>
+      <c r="M67" s="34"/>
+      <c r="N67" s="34"/>
+      <c r="O67" s="34"/>
+      <c r="P67" s="34"/>
+      <c r="Q67" s="34"/>
+      <c r="R67" s="34"/>
+      <c r="S67" s="34"/>
+      <c r="T67" s="34"/>
+      <c r="U67" s="34"/>
+      <c r="V67" s="34"/>
+      <c r="W67" s="34"/>
+      <c r="X67" s="34"/>
+      <c r="Y67" s="34"/>
+      <c r="Z67" s="34"/>
+      <c r="AA67" s="34"/>
+      <c r="AB67" s="34"/>
+      <c r="AC67" s="34"/>
       <c r="AD67" s="29"/>
       <c r="AE67" s="28"/>
       <c r="AF67" s="28"/>
@@ -4256,7 +4253,7 @@
     <row r="68" spans="1:36">
       <c r="A68" s="28"/>
       <c r="B68" s="28"/>
-      <c r="C68" s="30"/>
+      <c r="C68" s="28"/>
       <c r="D68" s="31"/>
       <c r="E68" s="31"/>
       <c r="F68" s="31"/>
@@ -4295,32 +4292,32 @@
       <c r="A69" s="28"/>
       <c r="B69" s="28"/>
       <c r="C69" s="30"/>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="31"/>
-      <c r="K69" s="31"/>
-      <c r="L69" s="31"/>
-      <c r="M69" s="31"/>
-      <c r="N69" s="31"/>
-      <c r="O69" s="31"/>
-      <c r="P69" s="31"/>
-      <c r="Q69" s="31"/>
-      <c r="R69" s="31"/>
-      <c r="S69" s="31"/>
-      <c r="T69" s="31"/>
-      <c r="U69" s="31"/>
-      <c r="V69" s="31"/>
-      <c r="W69" s="31"/>
-      <c r="X69" s="31"/>
-      <c r="Y69" s="31"/>
-      <c r="Z69" s="31"/>
-      <c r="AA69" s="31"/>
-      <c r="AB69" s="31"/>
-      <c r="AC69" s="31"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="34"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="34"/>
+      <c r="I69" s="34"/>
+      <c r="J69" s="34"/>
+      <c r="K69" s="34"/>
+      <c r="L69" s="34"/>
+      <c r="M69" s="34"/>
+      <c r="N69" s="34"/>
+      <c r="O69" s="34"/>
+      <c r="P69" s="34"/>
+      <c r="Q69" s="34"/>
+      <c r="R69" s="34"/>
+      <c r="S69" s="34"/>
+      <c r="T69" s="34"/>
+      <c r="U69" s="34"/>
+      <c r="V69" s="34"/>
+      <c r="W69" s="34"/>
+      <c r="X69" s="34"/>
+      <c r="Y69" s="34"/>
+      <c r="Z69" s="34"/>
+      <c r="AA69" s="34"/>
+      <c r="AB69" s="34"/>
+      <c r="AC69" s="34"/>
       <c r="AD69" s="29"/>
       <c r="AE69" s="28"/>
       <c r="AF69" s="28"/>
@@ -4332,33 +4329,33 @@
     <row r="70" spans="1:36">
       <c r="A70" s="28"/>
       <c r="B70" s="28"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="75"/>
-      <c r="E70" s="75"/>
-      <c r="F70" s="75"/>
-      <c r="G70" s="75"/>
-      <c r="H70" s="75"/>
-      <c r="I70" s="75"/>
-      <c r="J70" s="75"/>
-      <c r="K70" s="75"/>
-      <c r="L70" s="75"/>
-      <c r="M70" s="75"/>
-      <c r="N70" s="75"/>
-      <c r="O70" s="75"/>
-      <c r="P70" s="75"/>
-      <c r="Q70" s="75"/>
-      <c r="R70" s="75"/>
-      <c r="S70" s="75"/>
-      <c r="T70" s="75"/>
-      <c r="U70" s="75"/>
-      <c r="V70" s="75"/>
-      <c r="W70" s="75"/>
-      <c r="X70" s="75"/>
-      <c r="Y70" s="75"/>
-      <c r="Z70" s="75"/>
-      <c r="AA70" s="75"/>
-      <c r="AB70" s="75"/>
-      <c r="AC70" s="75"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="31"/>
+      <c r="K70" s="31"/>
+      <c r="L70" s="31"/>
+      <c r="M70" s="31"/>
+      <c r="N70" s="31"/>
+      <c r="O70" s="31"/>
+      <c r="P70" s="31"/>
+      <c r="Q70" s="31"/>
+      <c r="R70" s="31"/>
+      <c r="S70" s="31"/>
+      <c r="T70" s="31"/>
+      <c r="U70" s="31"/>
+      <c r="V70" s="31"/>
+      <c r="W70" s="31"/>
+      <c r="X70" s="31"/>
+      <c r="Y70" s="31"/>
+      <c r="Z70" s="31"/>
+      <c r="AA70" s="31"/>
+      <c r="AB70" s="31"/>
+      <c r="AC70" s="31"/>
       <c r="AD70" s="29"/>
       <c r="AE70" s="28"/>
       <c r="AF70" s="28"/>
@@ -4367,37 +4364,110 @@
       <c r="AI70" s="28"/>
       <c r="AJ70" s="28"/>
     </row>
+    <row r="71" spans="1:36">
+      <c r="A71" s="28"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="31"/>
+      <c r="G71" s="31"/>
+      <c r="H71" s="31"/>
+      <c r="I71" s="31"/>
+      <c r="J71" s="31"/>
+      <c r="K71" s="31"/>
+      <c r="L71" s="31"/>
+      <c r="M71" s="31"/>
+      <c r="N71" s="31"/>
+      <c r="O71" s="31"/>
+      <c r="P71" s="31"/>
+      <c r="Q71" s="31"/>
+      <c r="R71" s="31"/>
+      <c r="S71" s="31"/>
+      <c r="T71" s="31"/>
+      <c r="U71" s="31"/>
+      <c r="V71" s="31"/>
+      <c r="W71" s="31"/>
+      <c r="X71" s="31"/>
+      <c r="Y71" s="31"/>
+      <c r="Z71" s="31"/>
+      <c r="AA71" s="31"/>
+      <c r="AB71" s="31"/>
+      <c r="AC71" s="31"/>
+      <c r="AD71" s="29"/>
+      <c r="AE71" s="28"/>
+      <c r="AF71" s="28"/>
+      <c r="AG71" s="28"/>
+      <c r="AH71" s="28"/>
+      <c r="AI71" s="28"/>
+      <c r="AJ71" s="28"/>
+    </row>
+    <row r="72" spans="1:36">
+      <c r="A72" s="28"/>
+      <c r="B72" s="28"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="34"/>
+      <c r="E72" s="34"/>
+      <c r="F72" s="34"/>
+      <c r="G72" s="34"/>
+      <c r="H72" s="34"/>
+      <c r="I72" s="34"/>
+      <c r="J72" s="34"/>
+      <c r="K72" s="34"/>
+      <c r="L72" s="34"/>
+      <c r="M72" s="34"/>
+      <c r="N72" s="34"/>
+      <c r="O72" s="34"/>
+      <c r="P72" s="34"/>
+      <c r="Q72" s="34"/>
+      <c r="R72" s="34"/>
+      <c r="S72" s="34"/>
+      <c r="T72" s="34"/>
+      <c r="U72" s="34"/>
+      <c r="V72" s="34"/>
+      <c r="W72" s="34"/>
+      <c r="X72" s="34"/>
+      <c r="Y72" s="34"/>
+      <c r="Z72" s="34"/>
+      <c r="AA72" s="34"/>
+      <c r="AB72" s="34"/>
+      <c r="AC72" s="34"/>
+      <c r="AD72" s="29"/>
+      <c r="AE72" s="28"/>
+      <c r="AF72" s="28"/>
+      <c r="AG72" s="28"/>
+      <c r="AH72" s="28"/>
+      <c r="AI72" s="28"/>
+      <c r="AJ72" s="28"/>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="69">
-    <mergeCell ref="D70:AC70"/>
-    <mergeCell ref="E55:AJ55"/>
-    <mergeCell ref="E56:AJ56"/>
-    <mergeCell ref="E57:AJ57"/>
-    <mergeCell ref="Q27:AC27"/>
-    <mergeCell ref="Q28:AC28"/>
-    <mergeCell ref="D62:AC62"/>
-    <mergeCell ref="D65:AC65"/>
-    <mergeCell ref="D67:AC67"/>
-    <mergeCell ref="AE27:AI27"/>
-    <mergeCell ref="AE28:AI28"/>
-    <mergeCell ref="D28:P28"/>
-    <mergeCell ref="Q13:AC13"/>
-    <mergeCell ref="D58:AC58"/>
-    <mergeCell ref="D59:AC59"/>
-    <mergeCell ref="D60:AC60"/>
-    <mergeCell ref="D61:AC61"/>
-    <mergeCell ref="Q19:AC19"/>
-    <mergeCell ref="Q20:AC20"/>
-    <mergeCell ref="Q21:AC21"/>
-    <mergeCell ref="Q22:AC22"/>
-    <mergeCell ref="Q23:AC23"/>
-    <mergeCell ref="Q14:AC14"/>
-    <mergeCell ref="Q15:AC15"/>
-    <mergeCell ref="Q16:AC16"/>
-    <mergeCell ref="Q17:AC17"/>
-    <mergeCell ref="Q18:AC18"/>
-    <mergeCell ref="D27:P27"/>
+    <mergeCell ref="Q24:AC24"/>
+    <mergeCell ref="Q25:AC25"/>
+    <mergeCell ref="Q26:AC26"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:V2"/>
+    <mergeCell ref="W1:AJ1"/>
+    <mergeCell ref="W2:AJ2"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E3:H4"/>
+    <mergeCell ref="I3:L4"/>
+    <mergeCell ref="M3:V4"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="AG3:AJ3"/>
+    <mergeCell ref="Z4:AC4"/>
+    <mergeCell ref="AG4:AJ4"/>
+    <mergeCell ref="AE26:AI26"/>
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="D21:P21"/>
+    <mergeCell ref="D22:P22"/>
+    <mergeCell ref="D23:P23"/>
+    <mergeCell ref="D14:P14"/>
+    <mergeCell ref="D15:P15"/>
+    <mergeCell ref="D16:P16"/>
+    <mergeCell ref="D17:P17"/>
+    <mergeCell ref="D18:P18"/>
     <mergeCell ref="D24:P24"/>
     <mergeCell ref="D25:P25"/>
     <mergeCell ref="D26:P26"/>
@@ -4414,31 +4484,34 @@
     <mergeCell ref="AE21:AI21"/>
     <mergeCell ref="AE22:AI22"/>
     <mergeCell ref="D19:P19"/>
-    <mergeCell ref="D20:P20"/>
-    <mergeCell ref="D21:P21"/>
-    <mergeCell ref="D22:P22"/>
-    <mergeCell ref="D23:P23"/>
-    <mergeCell ref="D14:P14"/>
-    <mergeCell ref="D15:P15"/>
-    <mergeCell ref="D16:P16"/>
-    <mergeCell ref="D17:P17"/>
-    <mergeCell ref="D18:P18"/>
-    <mergeCell ref="Q24:AC24"/>
-    <mergeCell ref="Q25:AC25"/>
-    <mergeCell ref="Q26:AC26"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:V2"/>
-    <mergeCell ref="W1:AJ1"/>
-    <mergeCell ref="W2:AJ2"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="E3:H4"/>
-    <mergeCell ref="I3:L4"/>
-    <mergeCell ref="M3:V4"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="AG3:AJ3"/>
-    <mergeCell ref="Z4:AC4"/>
-    <mergeCell ref="AG4:AJ4"/>
-    <mergeCell ref="AE26:AI26"/>
+    <mergeCell ref="Q13:AC13"/>
+    <mergeCell ref="D60:AC60"/>
+    <mergeCell ref="D61:AC61"/>
+    <mergeCell ref="D62:AC62"/>
+    <mergeCell ref="D63:AC63"/>
+    <mergeCell ref="Q19:AC19"/>
+    <mergeCell ref="Q20:AC20"/>
+    <mergeCell ref="Q21:AC21"/>
+    <mergeCell ref="Q22:AC22"/>
+    <mergeCell ref="Q23:AC23"/>
+    <mergeCell ref="Q14:AC14"/>
+    <mergeCell ref="Q15:AC15"/>
+    <mergeCell ref="Q16:AC16"/>
+    <mergeCell ref="Q17:AC17"/>
+    <mergeCell ref="Q18:AC18"/>
+    <mergeCell ref="D27:P27"/>
+    <mergeCell ref="D72:AC72"/>
+    <mergeCell ref="E57:AJ57"/>
+    <mergeCell ref="E58:AJ58"/>
+    <mergeCell ref="E59:AJ59"/>
+    <mergeCell ref="Q27:AC27"/>
+    <mergeCell ref="Q28:AC28"/>
+    <mergeCell ref="D64:AC64"/>
+    <mergeCell ref="D67:AC67"/>
+    <mergeCell ref="D69:AC69"/>
+    <mergeCell ref="AE27:AI27"/>
+    <mergeCell ref="AE28:AI28"/>
+    <mergeCell ref="D28:P28"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.31496062992125984" top="0.39370078740157483" bottom="0.31496062992125984" header="0.15748031496062992" footer="0.15748031496062992"/>
   <pageSetup paperSize="8" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/BáoCáoChoKháchHàng.xlsx
+++ b/BáoCáoChoKháchHàng.xlsx
@@ -5,24 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Documents\GitHub\MyBigNumber\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MickeyMouse\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" tabRatio="705"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" tabRatio="705"/>
   </bookViews>
   <sheets>
     <sheet name="Add2Number" sheetId="33" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Add2Number!$A$1:$AJ$72</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Add2Number!$A$1:$AJ$75</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
   <si>
     <t>Create Date</t>
   </si>
@@ -124,9 +124,6 @@
   </si>
   <si>
     <t>KẾT QUẢ MONG ĐỢI</t>
-  </si>
-  <si>
-    <t>Thông báo lỗi NumberFormatException</t>
   </si>
   <si>
     <t>Chuỗi kết quả đúng và không dư ký số '0'</t>
@@ -163,17 +160,32 @@
   </si>
   <si>
     <t>Chuỗi 1 rỗng và chuỗi 2 thỏa điều kiện</t>
+  </si>
+  <si>
+    <t>Chuỗi 1 thỏa điều kiện và chuỗi 2 rỗng</t>
+  </si>
+  <si>
+    <t>Thông báo lỗi ParameterFormatException</t>
+  </si>
+  <si>
+    <t>Chuỗi 1 mặc định là '0' và kết quả đúng</t>
+  </si>
+  <si>
+    <t>Chuỗi 2 mặc định là '0' và kết quả đúng</t>
+  </si>
+  <si>
+    <t>Tổng kết: cả 15 Testcase đều hoàn thành</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#."/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -374,6 +386,12 @@
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="27">
@@ -982,7 +1000,7 @@
     <xf numFmtId="165" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="16" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1200,6 +1218,7 @@
     <xf numFmtId="15" fontId="27" fillId="0" borderId="33" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1301,13 +1320,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>248554</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>45721</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>205739</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1337,20 +1356,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>20242</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>172866</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>131194</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1363,8 +1382,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2369820" y="5295900"/>
-          <a:ext cx="5704762" cy="3914286"/>
+          <a:off x="28575" y="5534025"/>
+          <a:ext cx="9315450" cy="2845819"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1724,16 +1743,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ72"/>
+  <dimension ref="A1:AJ75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13:AC13"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A34" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="29" width="3.88671875" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="29" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="15" customHeight="1">
@@ -1920,7 +1939,7 @@
       <c r="AI4" s="75"/>
       <c r="AJ4" s="76"/>
     </row>
-    <row r="5" spans="1:36" ht="15.6">
+    <row r="5" spans="1:36" ht="15.75">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -1962,7 +1981,7 @@
       <c r="AI5" s="11"/>
       <c r="AJ5" s="11"/>
     </row>
-    <row r="6" spans="1:36" ht="15.6">
+    <row r="6" spans="1:36" ht="15.75">
       <c r="A6" s="14"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -2000,7 +2019,7 @@
       <c r="AI6" s="15"/>
       <c r="AJ6" s="15"/>
     </row>
-    <row r="7" spans="1:36" ht="15.6">
+    <row r="7" spans="1:36" ht="15.75">
       <c r="A7" s="14"/>
       <c r="B7" s="15">
         <v>1</v>
@@ -2042,7 +2061,7 @@
       <c r="AI7" s="15"/>
       <c r="AJ7" s="15"/>
     </row>
-    <row r="8" spans="1:36" ht="15.6">
+    <row r="8" spans="1:36" ht="15.75">
       <c r="A8" s="12"/>
       <c r="B8" s="12">
         <v>2</v>
@@ -2084,7 +2103,7 @@
       <c r="AI8" s="12"/>
       <c r="AJ8" s="12"/>
     </row>
-    <row r="9" spans="1:36" ht="15.6">
+    <row r="9" spans="1:36" ht="15.75">
       <c r="A9" s="12"/>
       <c r="B9" s="12">
         <v>3</v>
@@ -2126,7 +2145,7 @@
       <c r="AI9" s="13"/>
       <c r="AJ9" s="13"/>
     </row>
-    <row r="10" spans="1:36" ht="15.6">
+    <row r="10" spans="1:36" ht="15.75">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="13"/>
@@ -2164,7 +2183,7 @@
       <c r="AI10" s="13"/>
       <c r="AJ10" s="13"/>
     </row>
-    <row r="11" spans="1:36" ht="15.6">
+    <row r="11" spans="1:36" ht="15.75">
       <c r="A11" s="10">
         <v>2</v>
       </c>
@@ -2206,7 +2225,7 @@
       <c r="AI11" s="11"/>
       <c r="AJ11" s="11"/>
     </row>
-    <row r="12" spans="1:36" ht="15.6">
+    <row r="12" spans="1:36" ht="15.75">
       <c r="A12" s="24"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
@@ -2261,7 +2280,7 @@
       <c r="AB13" s="36"/>
       <c r="AC13" s="36"/>
     </row>
-    <row r="14" spans="1:36" ht="13.8" customHeight="1">
+    <row r="14" spans="1:36" ht="13.9" customHeight="1">
       <c r="B14" s="9"/>
       <c r="C14" s="16">
         <v>1</v>
@@ -2282,7 +2301,7 @@
       <c r="O14" s="39"/>
       <c r="P14" s="39"/>
       <c r="Q14" s="36" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="R14" s="36"/>
       <c r="S14" s="36"/>
@@ -2306,7 +2325,7 @@
       <c r="AI14" s="36"/>
       <c r="AJ14" s="16"/>
     </row>
-    <row r="15" spans="1:36" ht="13.8" customHeight="1">
+    <row r="15" spans="1:36" ht="13.9" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="16">
         <v>2</v>
@@ -2327,7 +2346,7 @@
       <c r="O15" s="39"/>
       <c r="P15" s="39"/>
       <c r="Q15" s="36" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="R15" s="36"/>
       <c r="S15" s="36"/>
@@ -2350,7 +2369,7 @@
       <c r="AH15" s="36"/>
       <c r="AI15" s="36"/>
     </row>
-    <row r="16" spans="1:36" ht="13.8" customHeight="1">
+    <row r="16" spans="1:36" ht="13.9" customHeight="1">
       <c r="B16" s="9"/>
       <c r="C16" s="16">
         <v>3</v>
@@ -2371,7 +2390,7 @@
       <c r="O16" s="39"/>
       <c r="P16" s="39"/>
       <c r="Q16" s="36" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="R16" s="36"/>
       <c r="S16" s="36"/>
@@ -2394,7 +2413,7 @@
       <c r="AH16" s="36"/>
       <c r="AI16" s="36"/>
     </row>
-    <row r="17" spans="2:35" ht="13.8" customHeight="1">
+    <row r="17" spans="2:35" ht="13.9" customHeight="1">
       <c r="B17" s="9"/>
       <c r="C17" s="16">
         <v>4</v>
@@ -2415,7 +2434,7 @@
       <c r="O17" s="39"/>
       <c r="P17" s="39"/>
       <c r="Q17" s="36" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="R17" s="36"/>
       <c r="S17" s="36"/>
@@ -2438,7 +2457,7 @@
       <c r="AH17" s="36"/>
       <c r="AI17" s="36"/>
     </row>
-    <row r="18" spans="2:35" ht="13.8" customHeight="1">
+    <row r="18" spans="2:35" ht="13.9" customHeight="1">
       <c r="B18" s="9"/>
       <c r="C18" s="16">
         <v>5</v>
@@ -2459,7 +2478,7 @@
       <c r="O18" s="39"/>
       <c r="P18" s="39"/>
       <c r="Q18" s="36" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="R18" s="36"/>
       <c r="S18" s="36"/>
@@ -2482,7 +2501,7 @@
       <c r="AH18" s="36"/>
       <c r="AI18" s="36"/>
     </row>
-    <row r="19" spans="2:35" ht="13.8" customHeight="1">
+    <row r="19" spans="2:35" ht="13.9" customHeight="1">
       <c r="B19" s="9"/>
       <c r="C19" s="16">
         <v>6</v>
@@ -2503,7 +2522,7 @@
       <c r="O19" s="39"/>
       <c r="P19" s="39"/>
       <c r="Q19" s="36" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="R19" s="36"/>
       <c r="S19" s="36"/>
@@ -2547,7 +2566,7 @@
       <c r="O20" s="39"/>
       <c r="P20" s="39"/>
       <c r="Q20" s="36" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="R20" s="36"/>
       <c r="S20" s="36"/>
@@ -2591,7 +2610,7 @@
       <c r="O21" s="39"/>
       <c r="P21" s="39"/>
       <c r="Q21" s="36" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="R21" s="36"/>
       <c r="S21" s="36"/>
@@ -2614,7 +2633,7 @@
       <c r="AH21" s="36"/>
       <c r="AI21" s="36"/>
     </row>
-    <row r="22" spans="2:35" ht="13.8" customHeight="1">
+    <row r="22" spans="2:35" ht="13.9" customHeight="1">
       <c r="B22" s="9"/>
       <c r="C22" s="16">
         <v>9</v>
@@ -2635,7 +2654,7 @@
       <c r="O22" s="39"/>
       <c r="P22" s="39"/>
       <c r="Q22" s="36" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="R22" s="36"/>
       <c r="S22" s="36"/>
@@ -2658,7 +2677,7 @@
       <c r="AH22" s="36"/>
       <c r="AI22" s="36"/>
     </row>
-    <row r="23" spans="2:35" ht="13.8" customHeight="1">
+    <row r="23" spans="2:35" ht="13.9" customHeight="1">
       <c r="B23" s="9"/>
       <c r="C23" s="21">
         <v>10</v>
@@ -2679,7 +2698,7 @@
       <c r="O23" s="39"/>
       <c r="P23" s="39"/>
       <c r="Q23" s="36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R23" s="36"/>
       <c r="S23" s="36"/>
@@ -2702,7 +2721,7 @@
       <c r="AH23" s="36"/>
       <c r="AI23" s="36"/>
     </row>
-    <row r="24" spans="2:35" ht="13.8" customHeight="1">
+    <row r="24" spans="2:35" ht="13.9" customHeight="1">
       <c r="B24" s="9"/>
       <c r="C24" s="21">
         <v>11</v>
@@ -2723,7 +2742,7 @@
       <c r="O24" s="39"/>
       <c r="P24" s="39"/>
       <c r="Q24" s="36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R24" s="36"/>
       <c r="S24" s="36"/>
@@ -2746,13 +2765,13 @@
       <c r="AH24" s="36"/>
       <c r="AI24" s="36"/>
     </row>
-    <row r="25" spans="2:35" ht="13.8" customHeight="1">
+    <row r="25" spans="2:35" ht="13.9" customHeight="1">
       <c r="B25" s="9"/>
       <c r="C25" s="21">
         <v>12</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E25" s="39"/>
       <c r="F25" s="39"/>
@@ -2767,7 +2786,7 @@
       <c r="O25" s="39"/>
       <c r="P25" s="39"/>
       <c r="Q25" s="36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R25" s="36"/>
       <c r="S25" s="36"/>
@@ -2790,12 +2809,14 @@
       <c r="AH25" s="36"/>
       <c r="AI25" s="36"/>
     </row>
-    <row r="26" spans="2:35" ht="13.8" customHeight="1">
+    <row r="26" spans="2:35" ht="13.9" customHeight="1">
       <c r="B26" s="9"/>
       <c r="C26" s="21">
         <v>13</v>
       </c>
-      <c r="D26" s="39"/>
+      <c r="D26" s="39" t="s">
+        <v>44</v>
+      </c>
       <c r="E26" s="39"/>
       <c r="F26" s="39"/>
       <c r="G26" s="39"/>
@@ -2809,7 +2830,7 @@
       <c r="O26" s="39"/>
       <c r="P26" s="39"/>
       <c r="Q26" s="36" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="R26" s="36"/>
       <c r="S26" s="36"/>
@@ -2832,7 +2853,7 @@
       <c r="AH26" s="36"/>
       <c r="AI26" s="36"/>
     </row>
-    <row r="27" spans="2:35" ht="13.8" customHeight="1">
+    <row r="27" spans="2:35" ht="13.9" customHeight="1">
       <c r="B27" s="9"/>
       <c r="C27" s="21">
         <v>14</v>
@@ -2853,7 +2874,7 @@
       <c r="O27" s="39"/>
       <c r="P27" s="39"/>
       <c r="Q27" s="36" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="R27" s="36"/>
       <c r="S27" s="36"/>
@@ -2876,7 +2897,7 @@
       <c r="AH27" s="36"/>
       <c r="AI27" s="36"/>
     </row>
-    <row r="28" spans="2:35" ht="13.8" customHeight="1">
+    <row r="28" spans="2:35" ht="13.9" customHeight="1">
       <c r="B28" s="9"/>
       <c r="C28" s="21">
         <v>15</v>
@@ -2897,7 +2918,7 @@
       <c r="O28" s="35"/>
       <c r="P28" s="35"/>
       <c r="Q28" s="36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R28" s="36"/>
       <c r="S28" s="36"/>
@@ -2920,7 +2941,7 @@
       <c r="AH28" s="36"/>
       <c r="AI28" s="36"/>
     </row>
-    <row r="29" spans="2:35" ht="13.8" customHeight="1">
+    <row r="29" spans="2:35" ht="13.9" customHeight="1">
       <c r="B29" s="9"/>
       <c r="C29" s="21"/>
       <c r="D29" s="23"/>
@@ -2956,8 +2977,10 @@
       <c r="AH29" s="20"/>
       <c r="AI29" s="20"/>
     </row>
-    <row r="30" spans="2:35" ht="13.8" customHeight="1">
-      <c r="B30" s="9"/>
+    <row r="30" spans="2:35" ht="13.9" customHeight="1">
+      <c r="B30" s="79" t="s">
+        <v>49</v>
+      </c>
       <c r="C30" s="21"/>
       <c r="D30" s="23"/>
       <c r="E30" s="23"/>
@@ -2992,7 +3015,7 @@
       <c r="AH30" s="20"/>
       <c r="AI30" s="20"/>
     </row>
-    <row r="31" spans="2:35" ht="13.8" customHeight="1">
+    <row r="31" spans="2:35" ht="13.9" customHeight="1">
       <c r="B31" s="9"/>
       <c r="C31" s="21"/>
       <c r="D31" s="23"/>
@@ -3028,7 +3051,7 @@
       <c r="AH31" s="20"/>
       <c r="AI31" s="20"/>
     </row>
-    <row r="32" spans="2:35" ht="13.8" customHeight="1">
+    <row r="32" spans="2:35" ht="13.9" customHeight="1">
       <c r="B32" s="9"/>
       <c r="C32" s="21"/>
       <c r="D32" s="23"/>
@@ -3064,7 +3087,7 @@
       <c r="AH32" s="20"/>
       <c r="AI32" s="20"/>
     </row>
-    <row r="33" spans="2:35" ht="13.8" customHeight="1">
+    <row r="33" spans="2:35" ht="13.9" customHeight="1">
       <c r="B33" s="9"/>
       <c r="C33" s="21"/>
       <c r="D33" s="23"/>
@@ -3100,187 +3123,187 @@
       <c r="AH33" s="20"/>
       <c r="AI33" s="20"/>
     </row>
-    <row r="34" spans="2:35" ht="13.8" customHeight="1">
+    <row r="34" spans="2:35" ht="13.9" customHeight="1">
       <c r="B34" s="9"/>
       <c r="C34" s="21"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="20"/>
-      <c r="T34" s="20"/>
-      <c r="U34" s="20"/>
-      <c r="V34" s="20"/>
-      <c r="W34" s="20"/>
-      <c r="X34" s="20"/>
-      <c r="Y34" s="20"/>
-      <c r="Z34" s="20"/>
-      <c r="AA34" s="20"/>
-      <c r="AB34" s="20"/>
-      <c r="AC34" s="20"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="33"/>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="32"/>
+      <c r="R34" s="32"/>
+      <c r="S34" s="32"/>
+      <c r="T34" s="32"/>
+      <c r="U34" s="32"/>
+      <c r="V34" s="32"/>
+      <c r="W34" s="32"/>
+      <c r="X34" s="32"/>
+      <c r="Y34" s="32"/>
+      <c r="Z34" s="32"/>
+      <c r="AA34" s="32"/>
+      <c r="AB34" s="32"/>
+      <c r="AC34" s="32"/>
       <c r="AD34" s="16"/>
-      <c r="AE34" s="20"/>
-      <c r="AF34" s="20"/>
-      <c r="AG34" s="20"/>
-      <c r="AH34" s="20"/>
-      <c r="AI34" s="20"/>
-    </row>
-    <row r="35" spans="2:35" ht="13.8" customHeight="1">
+      <c r="AE34" s="32"/>
+      <c r="AF34" s="32"/>
+      <c r="AG34" s="32"/>
+      <c r="AH34" s="32"/>
+      <c r="AI34" s="32"/>
+    </row>
+    <row r="35" spans="2:35" ht="13.9" customHeight="1">
       <c r="B35" s="9"/>
       <c r="C35" s="21"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="20"/>
-      <c r="R35" s="20"/>
-      <c r="S35" s="20"/>
-      <c r="T35" s="20"/>
-      <c r="U35" s="20"/>
-      <c r="V35" s="20"/>
-      <c r="W35" s="20"/>
-      <c r="X35" s="20"/>
-      <c r="Y35" s="20"/>
-      <c r="Z35" s="20"/>
-      <c r="AA35" s="20"/>
-      <c r="AB35" s="20"/>
-      <c r="AC35" s="20"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="32"/>
+      <c r="R35" s="32"/>
+      <c r="S35" s="32"/>
+      <c r="T35" s="32"/>
+      <c r="U35" s="32"/>
+      <c r="V35" s="32"/>
+      <c r="W35" s="32"/>
+      <c r="X35" s="32"/>
+      <c r="Y35" s="32"/>
+      <c r="Z35" s="32"/>
+      <c r="AA35" s="32"/>
+      <c r="AB35" s="32"/>
+      <c r="AC35" s="32"/>
       <c r="AD35" s="16"/>
-      <c r="AE35" s="20"/>
-      <c r="AF35" s="20"/>
-      <c r="AG35" s="20"/>
-      <c r="AH35" s="20"/>
-      <c r="AI35" s="20"/>
-    </row>
-    <row r="36" spans="2:35" ht="13.8" customHeight="1">
+      <c r="AE35" s="32"/>
+      <c r="AF35" s="32"/>
+      <c r="AG35" s="32"/>
+      <c r="AH35" s="32"/>
+      <c r="AI35" s="32"/>
+    </row>
+    <row r="36" spans="2:35" ht="13.9" customHeight="1">
       <c r="B36" s="9"/>
       <c r="C36" s="21"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="23"/>
-      <c r="O36" s="23"/>
-      <c r="P36" s="23"/>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="20"/>
-      <c r="S36" s="20"/>
-      <c r="T36" s="20"/>
-      <c r="U36" s="20"/>
-      <c r="V36" s="20"/>
-      <c r="W36" s="20"/>
-      <c r="X36" s="20"/>
-      <c r="Y36" s="20"/>
-      <c r="Z36" s="20"/>
-      <c r="AA36" s="20"/>
-      <c r="AB36" s="20"/>
-      <c r="AC36" s="20"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="32"/>
+      <c r="U36" s="32"/>
+      <c r="V36" s="32"/>
+      <c r="W36" s="32"/>
+      <c r="X36" s="32"/>
+      <c r="Y36" s="32"/>
+      <c r="Z36" s="32"/>
+      <c r="AA36" s="32"/>
+      <c r="AB36" s="32"/>
+      <c r="AC36" s="32"/>
       <c r="AD36" s="16"/>
-      <c r="AE36" s="20"/>
-      <c r="AF36" s="20"/>
-      <c r="AG36" s="20"/>
-      <c r="AH36" s="20"/>
-      <c r="AI36" s="20"/>
-    </row>
-    <row r="37" spans="2:35" ht="13.8" customHeight="1">
+      <c r="AE36" s="32"/>
+      <c r="AF36" s="32"/>
+      <c r="AG36" s="32"/>
+      <c r="AH36" s="32"/>
+      <c r="AI36" s="32"/>
+    </row>
+    <row r="37" spans="2:35" ht="13.9" customHeight="1">
       <c r="B37" s="9"/>
       <c r="C37" s="21"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="23"/>
-      <c r="N37" s="23"/>
-      <c r="O37" s="23"/>
-      <c r="P37" s="23"/>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="20"/>
-      <c r="S37" s="20"/>
-      <c r="T37" s="20"/>
-      <c r="U37" s="20"/>
-      <c r="V37" s="20"/>
-      <c r="W37" s="20"/>
-      <c r="X37" s="20"/>
-      <c r="Y37" s="20"/>
-      <c r="Z37" s="20"/>
-      <c r="AA37" s="20"/>
-      <c r="AB37" s="20"/>
-      <c r="AC37" s="20"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="32"/>
+      <c r="R37" s="32"/>
+      <c r="S37" s="32"/>
+      <c r="T37" s="32"/>
+      <c r="U37" s="32"/>
+      <c r="V37" s="32"/>
+      <c r="W37" s="32"/>
+      <c r="X37" s="32"/>
+      <c r="Y37" s="32"/>
+      <c r="Z37" s="32"/>
+      <c r="AA37" s="32"/>
+      <c r="AB37" s="32"/>
+      <c r="AC37" s="32"/>
       <c r="AD37" s="16"/>
-      <c r="AE37" s="20"/>
-      <c r="AF37" s="20"/>
-      <c r="AG37" s="20"/>
-      <c r="AH37" s="20"/>
-      <c r="AI37" s="20"/>
-    </row>
-    <row r="38" spans="2:35" ht="13.8" customHeight="1">
+      <c r="AE37" s="32"/>
+      <c r="AF37" s="32"/>
+      <c r="AG37" s="32"/>
+      <c r="AH37" s="32"/>
+      <c r="AI37" s="32"/>
+    </row>
+    <row r="38" spans="2:35" ht="13.9" customHeight="1">
       <c r="B38" s="9"/>
       <c r="C38" s="21"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="23"/>
-      <c r="P38" s="23"/>
-      <c r="Q38" s="20"/>
-      <c r="R38" s="20"/>
-      <c r="S38" s="20"/>
-      <c r="T38" s="20"/>
-      <c r="U38" s="20"/>
-      <c r="V38" s="20"/>
-      <c r="W38" s="20"/>
-      <c r="X38" s="20"/>
-      <c r="Y38" s="20"/>
-      <c r="Z38" s="20"/>
-      <c r="AA38" s="20"/>
-      <c r="AB38" s="20"/>
-      <c r="AC38" s="20"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="32"/>
+      <c r="R38" s="32"/>
+      <c r="S38" s="32"/>
+      <c r="T38" s="32"/>
+      <c r="U38" s="32"/>
+      <c r="V38" s="32"/>
+      <c r="W38" s="32"/>
+      <c r="X38" s="32"/>
+      <c r="Y38" s="32"/>
+      <c r="Z38" s="32"/>
+      <c r="AA38" s="32"/>
+      <c r="AB38" s="32"/>
+      <c r="AC38" s="32"/>
       <c r="AD38" s="16"/>
-      <c r="AE38" s="20"/>
-      <c r="AF38" s="20"/>
-      <c r="AG38" s="20"/>
-      <c r="AH38" s="20"/>
-      <c r="AI38" s="20"/>
-    </row>
-    <row r="39" spans="2:35" ht="13.8" customHeight="1">
+      <c r="AE38" s="32"/>
+      <c r="AF38" s="32"/>
+      <c r="AG38" s="32"/>
+      <c r="AH38" s="32"/>
+      <c r="AI38" s="32"/>
+    </row>
+    <row r="39" spans="2:35" ht="13.9" customHeight="1">
       <c r="B39" s="9"/>
       <c r="C39" s="21"/>
       <c r="D39" s="23"/>
@@ -3316,7 +3339,7 @@
       <c r="AH39" s="20"/>
       <c r="AI39" s="20"/>
     </row>
-    <row r="40" spans="2:35" ht="13.8" customHeight="1">
+    <row r="40" spans="2:35" ht="13.9" customHeight="1">
       <c r="B40" s="9"/>
       <c r="C40" s="21"/>
       <c r="D40" s="23"/>
@@ -3352,7 +3375,7 @@
       <c r="AH40" s="20"/>
       <c r="AI40" s="20"/>
     </row>
-    <row r="41" spans="2:35" ht="13.8" customHeight="1">
+    <row r="41" spans="2:35" ht="13.9" customHeight="1">
       <c r="B41" s="9"/>
       <c r="C41" s="21"/>
       <c r="D41" s="23"/>
@@ -3388,7 +3411,7 @@
       <c r="AH41" s="20"/>
       <c r="AI41" s="20"/>
     </row>
-    <row r="42" spans="2:35" ht="13.8" customHeight="1">
+    <row r="42" spans="2:35" ht="13.9" customHeight="1">
       <c r="B42" s="9"/>
       <c r="C42" s="21"/>
       <c r="D42" s="23"/>
@@ -3424,7 +3447,7 @@
       <c r="AH42" s="20"/>
       <c r="AI42" s="20"/>
     </row>
-    <row r="43" spans="2:35" ht="13.8" customHeight="1">
+    <row r="43" spans="2:35" ht="13.9" customHeight="1">
       <c r="B43" s="9"/>
       <c r="C43" s="21"/>
       <c r="D43" s="23"/>
@@ -3460,7 +3483,7 @@
       <c r="AH43" s="20"/>
       <c r="AI43" s="20"/>
     </row>
-    <row r="44" spans="2:35" ht="13.8" customHeight="1">
+    <row r="44" spans="2:35" ht="13.9" customHeight="1">
       <c r="B44" s="9"/>
       <c r="C44" s="21"/>
       <c r="D44" s="23"/>
@@ -3496,79 +3519,79 @@
       <c r="AH44" s="20"/>
       <c r="AI44" s="20"/>
     </row>
-    <row r="45" spans="2:35" ht="13.8" customHeight="1">
+    <row r="45" spans="2:35" ht="13.9" customHeight="1">
       <c r="B45" s="9"/>
       <c r="C45" s="21"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="33"/>
-      <c r="L45" s="33"/>
-      <c r="M45" s="33"/>
-      <c r="N45" s="33"/>
-      <c r="O45" s="33"/>
-      <c r="P45" s="33"/>
-      <c r="Q45" s="32"/>
-      <c r="R45" s="32"/>
-      <c r="S45" s="32"/>
-      <c r="T45" s="32"/>
-      <c r="U45" s="32"/>
-      <c r="V45" s="32"/>
-      <c r="W45" s="32"/>
-      <c r="X45" s="32"/>
-      <c r="Y45" s="32"/>
-      <c r="Z45" s="32"/>
-      <c r="AA45" s="32"/>
-      <c r="AB45" s="32"/>
-      <c r="AC45" s="32"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="23"/>
+      <c r="M45" s="23"/>
+      <c r="N45" s="23"/>
+      <c r="O45" s="23"/>
+      <c r="P45" s="23"/>
+      <c r="Q45" s="20"/>
+      <c r="R45" s="20"/>
+      <c r="S45" s="20"/>
+      <c r="T45" s="20"/>
+      <c r="U45" s="20"/>
+      <c r="V45" s="20"/>
+      <c r="W45" s="20"/>
+      <c r="X45" s="20"/>
+      <c r="Y45" s="20"/>
+      <c r="Z45" s="20"/>
+      <c r="AA45" s="20"/>
+      <c r="AB45" s="20"/>
+      <c r="AC45" s="20"/>
       <c r="AD45" s="16"/>
-      <c r="AE45" s="32"/>
-      <c r="AF45" s="32"/>
-      <c r="AG45" s="32"/>
-      <c r="AH45" s="32"/>
-      <c r="AI45" s="32"/>
-    </row>
-    <row r="46" spans="2:35" ht="13.8" customHeight="1">
+      <c r="AE45" s="20"/>
+      <c r="AF45" s="20"/>
+      <c r="AG45" s="20"/>
+      <c r="AH45" s="20"/>
+      <c r="AI45" s="20"/>
+    </row>
+    <row r="46" spans="2:35" ht="13.9" customHeight="1">
       <c r="B46" s="9"/>
       <c r="C46" s="21"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="33"/>
-      <c r="L46" s="33"/>
-      <c r="M46" s="33"/>
-      <c r="N46" s="33"/>
-      <c r="O46" s="33"/>
-      <c r="P46" s="33"/>
-      <c r="Q46" s="32"/>
-      <c r="R46" s="32"/>
-      <c r="S46" s="32"/>
-      <c r="T46" s="32"/>
-      <c r="U46" s="32"/>
-      <c r="V46" s="32"/>
-      <c r="W46" s="32"/>
-      <c r="X46" s="32"/>
-      <c r="Y46" s="32"/>
-      <c r="Z46" s="32"/>
-      <c r="AA46" s="32"/>
-      <c r="AB46" s="32"/>
-      <c r="AC46" s="32"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="23"/>
+      <c r="M46" s="23"/>
+      <c r="N46" s="23"/>
+      <c r="O46" s="23"/>
+      <c r="P46" s="23"/>
+      <c r="Q46" s="20"/>
+      <c r="R46" s="20"/>
+      <c r="S46" s="20"/>
+      <c r="T46" s="20"/>
+      <c r="U46" s="20"/>
+      <c r="V46" s="20"/>
+      <c r="W46" s="20"/>
+      <c r="X46" s="20"/>
+      <c r="Y46" s="20"/>
+      <c r="Z46" s="20"/>
+      <c r="AA46" s="20"/>
+      <c r="AB46" s="20"/>
+      <c r="AC46" s="20"/>
       <c r="AD46" s="16"/>
-      <c r="AE46" s="32"/>
-      <c r="AF46" s="32"/>
-      <c r="AG46" s="32"/>
-      <c r="AH46" s="32"/>
-      <c r="AI46" s="32"/>
-    </row>
-    <row r="47" spans="2:35" ht="13.8" customHeight="1">
+      <c r="AE46" s="20"/>
+      <c r="AF46" s="20"/>
+      <c r="AG46" s="20"/>
+      <c r="AH46" s="20"/>
+      <c r="AI46" s="20"/>
+    </row>
+    <row r="47" spans="2:35" ht="13.9" customHeight="1">
       <c r="B47" s="9"/>
       <c r="C47" s="21"/>
       <c r="D47" s="23"/>
@@ -3604,7 +3627,7 @@
       <c r="AH47" s="20"/>
       <c r="AI47" s="20"/>
     </row>
-    <row r="48" spans="2:35" ht="13.8" customHeight="1">
+    <row r="48" spans="2:35" ht="13.9" customHeight="1">
       <c r="B48" s="9"/>
       <c r="C48" s="21"/>
       <c r="D48" s="23"/>
@@ -3640,7 +3663,7 @@
       <c r="AH48" s="20"/>
       <c r="AI48" s="20"/>
     </row>
-    <row r="49" spans="1:36" ht="13.8" customHeight="1">
+    <row r="49" spans="1:36" ht="13.9" customHeight="1">
       <c r="B49" s="9"/>
       <c r="C49" s="21"/>
       <c r="D49" s="23"/>
@@ -3676,7 +3699,7 @@
       <c r="AH49" s="20"/>
       <c r="AI49" s="20"/>
     </row>
-    <row r="50" spans="1:36" ht="13.8" customHeight="1">
+    <row r="50" spans="1:36" ht="13.9" customHeight="1">
       <c r="B50" s="9"/>
       <c r="C50" s="21"/>
       <c r="D50" s="23"/>
@@ -3712,7 +3735,7 @@
       <c r="AH50" s="20"/>
       <c r="AI50" s="20"/>
     </row>
-    <row r="51" spans="1:36" ht="13.8" customHeight="1">
+    <row r="51" spans="1:36" ht="13.9" customHeight="1">
       <c r="B51" s="9"/>
       <c r="C51" s="21"/>
       <c r="D51" s="23"/>
@@ -3748,469 +3771,463 @@
       <c r="AH51" s="20"/>
       <c r="AI51" s="20"/>
     </row>
-    <row r="52" spans="1:36">
+    <row r="52" spans="1:36" ht="13.9" customHeight="1">
       <c r="B52" s="9"/>
       <c r="C52" s="21"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="22"/>
-      <c r="M52" s="22"/>
-      <c r="N52" s="22"/>
-      <c r="O52" s="22"/>
-      <c r="P52" s="22"/>
-      <c r="Q52" s="19"/>
-      <c r="R52" s="19"/>
-      <c r="S52" s="19"/>
-      <c r="T52" s="19"/>
-      <c r="U52" s="19"/>
-      <c r="V52" s="19"/>
-      <c r="W52" s="19"/>
-      <c r="X52" s="19"/>
-      <c r="Y52" s="19"/>
-      <c r="Z52" s="19"/>
-      <c r="AA52" s="19"/>
-      <c r="AB52" s="19"/>
-      <c r="AC52" s="19"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="23"/>
+      <c r="K52" s="23"/>
+      <c r="L52" s="23"/>
+      <c r="M52" s="23"/>
+      <c r="N52" s="23"/>
+      <c r="O52" s="23"/>
+      <c r="P52" s="23"/>
+      <c r="Q52" s="20"/>
+      <c r="R52" s="20"/>
+      <c r="S52" s="20"/>
+      <c r="T52" s="20"/>
+      <c r="U52" s="20"/>
+      <c r="V52" s="20"/>
+      <c r="W52" s="20"/>
+      <c r="X52" s="20"/>
+      <c r="Y52" s="20"/>
+      <c r="Z52" s="20"/>
+      <c r="AA52" s="20"/>
+      <c r="AB52" s="20"/>
+      <c r="AC52" s="20"/>
       <c r="AD52" s="16"/>
-      <c r="AE52" s="19"/>
-      <c r="AF52" s="19"/>
-      <c r="AG52" s="19"/>
-      <c r="AH52" s="19"/>
-      <c r="AI52" s="19"/>
-    </row>
-    <row r="53" spans="1:36" ht="15.6">
-      <c r="A53" s="10">
+      <c r="AE52" s="20"/>
+      <c r="AF52" s="20"/>
+      <c r="AG52" s="20"/>
+      <c r="AH52" s="20"/>
+      <c r="AI52" s="20"/>
+    </row>
+    <row r="53" spans="1:36" ht="13.9" customHeight="1">
+      <c r="B53" s="9"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="23"/>
+      <c r="K53" s="23"/>
+      <c r="L53" s="23"/>
+      <c r="M53" s="23"/>
+      <c r="N53" s="23"/>
+      <c r="O53" s="23"/>
+      <c r="P53" s="23"/>
+      <c r="Q53" s="20"/>
+      <c r="R53" s="20"/>
+      <c r="S53" s="20"/>
+      <c r="T53" s="20"/>
+      <c r="U53" s="20"/>
+      <c r="V53" s="20"/>
+      <c r="W53" s="20"/>
+      <c r="X53" s="20"/>
+      <c r="Y53" s="20"/>
+      <c r="Z53" s="20"/>
+      <c r="AA53" s="20"/>
+      <c r="AB53" s="20"/>
+      <c r="AC53" s="20"/>
+      <c r="AD53" s="16"/>
+      <c r="AE53" s="20"/>
+      <c r="AF53" s="20"/>
+      <c r="AG53" s="20"/>
+      <c r="AH53" s="20"/>
+      <c r="AI53" s="20"/>
+    </row>
+    <row r="54" spans="1:36" ht="13.9" customHeight="1">
+      <c r="B54" s="9"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="23"/>
+      <c r="L54" s="23"/>
+      <c r="M54" s="23"/>
+      <c r="N54" s="23"/>
+      <c r="O54" s="23"/>
+      <c r="P54" s="23"/>
+      <c r="Q54" s="20"/>
+      <c r="R54" s="20"/>
+      <c r="S54" s="20"/>
+      <c r="T54" s="20"/>
+      <c r="U54" s="20"/>
+      <c r="V54" s="20"/>
+      <c r="W54" s="20"/>
+      <c r="X54" s="20"/>
+      <c r="Y54" s="20"/>
+      <c r="Z54" s="20"/>
+      <c r="AA54" s="20"/>
+      <c r="AB54" s="20"/>
+      <c r="AC54" s="20"/>
+      <c r="AD54" s="16"/>
+      <c r="AE54" s="20"/>
+      <c r="AF54" s="20"/>
+      <c r="AG54" s="20"/>
+      <c r="AH54" s="20"/>
+      <c r="AI54" s="20"/>
+    </row>
+    <row r="55" spans="1:36">
+      <c r="B55" s="9"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="22"/>
+      <c r="P55" s="22"/>
+      <c r="Q55" s="19"/>
+      <c r="R55" s="19"/>
+      <c r="S55" s="19"/>
+      <c r="T55" s="19"/>
+      <c r="U55" s="19"/>
+      <c r="V55" s="19"/>
+      <c r="W55" s="19"/>
+      <c r="X55" s="19"/>
+      <c r="Y55" s="19"/>
+      <c r="Z55" s="19"/>
+      <c r="AA55" s="19"/>
+      <c r="AB55" s="19"/>
+      <c r="AC55" s="19"/>
+      <c r="AD55" s="16"/>
+      <c r="AE55" s="19"/>
+      <c r="AF55" s="19"/>
+      <c r="AG55" s="19"/>
+      <c r="AH55" s="19"/>
+      <c r="AI55" s="19"/>
+    </row>
+    <row r="56" spans="1:36" ht="15.75">
+      <c r="A56" s="10">
         <v>3</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B56" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="11"/>
-      <c r="L53" s="11"/>
-      <c r="M53" s="11"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="11"/>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="11"/>
-      <c r="R53" s="11"/>
-      <c r="S53" s="11"/>
-      <c r="T53" s="11"/>
-      <c r="U53" s="11"/>
-      <c r="V53" s="11"/>
-      <c r="W53" s="11"/>
-      <c r="X53" s="11"/>
-      <c r="Y53" s="11"/>
-      <c r="Z53" s="11"/>
-      <c r="AA53" s="11"/>
-      <c r="AB53" s="11"/>
-      <c r="AC53" s="11"/>
-      <c r="AD53" s="11"/>
-      <c r="AE53" s="11"/>
-      <c r="AF53" s="11"/>
-      <c r="AG53" s="11"/>
-      <c r="AH53" s="11"/>
-      <c r="AI53" s="11"/>
-      <c r="AJ53" s="11"/>
-    </row>
-    <row r="55" spans="1:36">
-      <c r="C55" s="18">
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
+      <c r="R56" s="11"/>
+      <c r="S56" s="11"/>
+      <c r="T56" s="11"/>
+      <c r="U56" s="11"/>
+      <c r="V56" s="11"/>
+      <c r="W56" s="11"/>
+      <c r="X56" s="11"/>
+      <c r="Y56" s="11"/>
+      <c r="Z56" s="11"/>
+      <c r="AA56" s="11"/>
+      <c r="AB56" s="11"/>
+      <c r="AC56" s="11"/>
+      <c r="AD56" s="11"/>
+      <c r="AE56" s="11"/>
+      <c r="AF56" s="11"/>
+      <c r="AG56" s="11"/>
+      <c r="AH56" s="11"/>
+      <c r="AI56" s="11"/>
+      <c r="AJ56" s="11"/>
+    </row>
+    <row r="58" spans="1:36">
+      <c r="C58" s="18">
         <v>1</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D58" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:36">
+      <c r="C59" s="17">
+        <v>2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="1:36" ht="13.9" customHeight="1">
+      <c r="D60" s="21" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="56" spans="1:36">
-      <c r="C56" s="17">
-        <v>2</v>
-      </c>
-      <c r="D56" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="57" spans="1:36" ht="13.8" customHeight="1">
-      <c r="D57" s="21" t="s">
+      <c r="E60" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="E57" s="35" t="s">
+      <c r="F60" s="35"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="35"/>
+      <c r="J60" s="35"/>
+      <c r="K60" s="35"/>
+      <c r="L60" s="35"/>
+      <c r="M60" s="35"/>
+      <c r="N60" s="35"/>
+      <c r="O60" s="35"/>
+      <c r="P60" s="35"/>
+      <c r="Q60" s="35"/>
+      <c r="R60" s="35"/>
+      <c r="S60" s="35"/>
+      <c r="T60" s="35"/>
+      <c r="U60" s="35"/>
+      <c r="V60" s="35"/>
+      <c r="W60" s="35"/>
+      <c r="X60" s="35"/>
+      <c r="Y60" s="35"/>
+      <c r="Z60" s="35"/>
+      <c r="AA60" s="35"/>
+      <c r="AB60" s="35"/>
+      <c r="AC60" s="35"/>
+      <c r="AD60" s="35"/>
+      <c r="AE60" s="35"/>
+      <c r="AF60" s="35"/>
+      <c r="AG60" s="35"/>
+      <c r="AH60" s="35"/>
+      <c r="AI60" s="35"/>
+      <c r="AJ60" s="35"/>
+    </row>
+    <row r="61" spans="1:36">
+      <c r="D61" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E61" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="F57" s="35"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="35"/>
-      <c r="I57" s="35"/>
-      <c r="J57" s="35"/>
-      <c r="K57" s="35"/>
-      <c r="L57" s="35"/>
-      <c r="M57" s="35"/>
-      <c r="N57" s="35"/>
-      <c r="O57" s="35"/>
-      <c r="P57" s="35"/>
-      <c r="Q57" s="35"/>
-      <c r="R57" s="35"/>
-      <c r="S57" s="35"/>
-      <c r="T57" s="35"/>
-      <c r="U57" s="35"/>
-      <c r="V57" s="35"/>
-      <c r="W57" s="35"/>
-      <c r="X57" s="35"/>
-      <c r="Y57" s="35"/>
-      <c r="Z57" s="35"/>
-      <c r="AA57" s="35"/>
-      <c r="AB57" s="35"/>
-      <c r="AC57" s="35"/>
-      <c r="AD57" s="35"/>
-      <c r="AE57" s="35"/>
-      <c r="AF57" s="35"/>
-      <c r="AG57" s="35"/>
-      <c r="AH57" s="35"/>
-      <c r="AI57" s="35"/>
-      <c r="AJ57" s="35"/>
-    </row>
-    <row r="58" spans="1:36">
-      <c r="D58" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E58" s="35" t="s">
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="35"/>
+      <c r="J61" s="35"/>
+      <c r="K61" s="35"/>
+      <c r="L61" s="35"/>
+      <c r="M61" s="35"/>
+      <c r="N61" s="35"/>
+      <c r="O61" s="35"/>
+      <c r="P61" s="35"/>
+      <c r="Q61" s="35"/>
+      <c r="R61" s="35"/>
+      <c r="S61" s="35"/>
+      <c r="T61" s="35"/>
+      <c r="U61" s="35"/>
+      <c r="V61" s="35"/>
+      <c r="W61" s="35"/>
+      <c r="X61" s="35"/>
+      <c r="Y61" s="35"/>
+      <c r="Z61" s="35"/>
+      <c r="AA61" s="35"/>
+      <c r="AB61" s="35"/>
+      <c r="AC61" s="35"/>
+      <c r="AD61" s="35"/>
+      <c r="AE61" s="35"/>
+      <c r="AF61" s="35"/>
+      <c r="AG61" s="35"/>
+      <c r="AH61" s="35"/>
+      <c r="AI61" s="35"/>
+      <c r="AJ61" s="35"/>
+    </row>
+    <row r="62" spans="1:36">
+      <c r="D62" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E62" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="35"/>
-      <c r="J58" s="35"/>
-      <c r="K58" s="35"/>
-      <c r="L58" s="35"/>
-      <c r="M58" s="35"/>
-      <c r="N58" s="35"/>
-      <c r="O58" s="35"/>
-      <c r="P58" s="35"/>
-      <c r="Q58" s="35"/>
-      <c r="R58" s="35"/>
-      <c r="S58" s="35"/>
-      <c r="T58" s="35"/>
-      <c r="U58" s="35"/>
-      <c r="V58" s="35"/>
-      <c r="W58" s="35"/>
-      <c r="X58" s="35"/>
-      <c r="Y58" s="35"/>
-      <c r="Z58" s="35"/>
-      <c r="AA58" s="35"/>
-      <c r="AB58" s="35"/>
-      <c r="AC58" s="35"/>
-      <c r="AD58" s="35"/>
-      <c r="AE58" s="35"/>
-      <c r="AF58" s="35"/>
-      <c r="AG58" s="35"/>
-      <c r="AH58" s="35"/>
-      <c r="AI58" s="35"/>
-      <c r="AJ58" s="35"/>
-    </row>
-    <row r="59" spans="1:36">
-      <c r="D59" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E59" s="35" t="s">
+      <c r="F62" s="35"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="35"/>
+      <c r="K62" s="35"/>
+      <c r="L62" s="35"/>
+      <c r="M62" s="35"/>
+      <c r="N62" s="35"/>
+      <c r="O62" s="35"/>
+      <c r="P62" s="35"/>
+      <c r="Q62" s="35"/>
+      <c r="R62" s="35"/>
+      <c r="S62" s="35"/>
+      <c r="T62" s="35"/>
+      <c r="U62" s="35"/>
+      <c r="V62" s="35"/>
+      <c r="W62" s="35"/>
+      <c r="X62" s="35"/>
+      <c r="Y62" s="35"/>
+      <c r="Z62" s="35"/>
+      <c r="AA62" s="35"/>
+      <c r="AB62" s="35"/>
+      <c r="AC62" s="35"/>
+      <c r="AD62" s="35"/>
+      <c r="AE62" s="35"/>
+      <c r="AF62" s="35"/>
+      <c r="AG62" s="35"/>
+      <c r="AH62" s="35"/>
+      <c r="AI62" s="35"/>
+      <c r="AJ62" s="35"/>
+    </row>
+    <row r="63" spans="1:36">
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="F59" s="35"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="35"/>
-      <c r="I59" s="35"/>
-      <c r="J59" s="35"/>
-      <c r="K59" s="35"/>
-      <c r="L59" s="35"/>
-      <c r="M59" s="35"/>
-      <c r="N59" s="35"/>
-      <c r="O59" s="35"/>
-      <c r="P59" s="35"/>
-      <c r="Q59" s="35"/>
-      <c r="R59" s="35"/>
-      <c r="S59" s="35"/>
-      <c r="T59" s="35"/>
-      <c r="U59" s="35"/>
-      <c r="V59" s="35"/>
-      <c r="W59" s="35"/>
-      <c r="X59" s="35"/>
-      <c r="Y59" s="35"/>
-      <c r="Z59" s="35"/>
-      <c r="AA59" s="35"/>
-      <c r="AB59" s="35"/>
-      <c r="AC59" s="35"/>
-      <c r="AD59" s="35"/>
-      <c r="AE59" s="35"/>
-      <c r="AF59" s="35"/>
-      <c r="AG59" s="35"/>
-      <c r="AH59" s="35"/>
-      <c r="AI59" s="35"/>
-      <c r="AJ59" s="35"/>
-    </row>
-    <row r="60" spans="1:36">
-      <c r="C60">
-        <v>3</v>
-      </c>
-      <c r="D60" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E60" s="37"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="37"/>
-      <c r="H60" s="37"/>
-      <c r="I60" s="37"/>
-      <c r="J60" s="37"/>
-      <c r="K60" s="37"/>
-      <c r="L60" s="37"/>
-      <c r="M60" s="37"/>
-      <c r="N60" s="37"/>
-      <c r="O60" s="37"/>
-      <c r="P60" s="37"/>
-      <c r="Q60" s="37"/>
-      <c r="R60" s="37"/>
-      <c r="S60" s="37"/>
-      <c r="T60" s="37"/>
-      <c r="U60" s="37"/>
-      <c r="V60" s="37"/>
-      <c r="W60" s="37"/>
-      <c r="X60" s="37"/>
-      <c r="Y60" s="37"/>
-      <c r="Z60" s="37"/>
-      <c r="AA60" s="37"/>
-      <c r="AB60" s="37"/>
-      <c r="AC60" s="37"/>
-      <c r="AD60" s="26"/>
-    </row>
-    <row r="61" spans="1:36">
-      <c r="C61" s="17"/>
-      <c r="D61" s="38"/>
-      <c r="E61" s="38"/>
-      <c r="F61" s="38"/>
-      <c r="G61" s="38"/>
-      <c r="H61" s="38"/>
-      <c r="I61" s="38"/>
-      <c r="J61" s="38"/>
-      <c r="K61" s="38"/>
-      <c r="L61" s="38"/>
-      <c r="M61" s="38"/>
-      <c r="N61" s="38"/>
-      <c r="O61" s="38"/>
-      <c r="P61" s="38"/>
-      <c r="Q61" s="38"/>
-      <c r="R61" s="38"/>
-      <c r="S61" s="38"/>
-      <c r="T61" s="38"/>
-      <c r="U61" s="38"/>
-      <c r="V61" s="38"/>
-      <c r="W61" s="38"/>
-      <c r="X61" s="38"/>
-      <c r="Y61" s="38"/>
-      <c r="Z61" s="38"/>
-      <c r="AA61" s="38"/>
-      <c r="AB61" s="38"/>
-      <c r="AC61" s="38"/>
-      <c r="AD61" s="26"/>
-    </row>
-    <row r="62" spans="1:36">
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="38"/>
-      <c r="E62" s="38"/>
-      <c r="F62" s="38"/>
-      <c r="G62" s="38"/>
-      <c r="H62" s="38"/>
-      <c r="I62" s="38"/>
-      <c r="J62" s="38"/>
-      <c r="K62" s="38"/>
-      <c r="L62" s="38"/>
-      <c r="M62" s="38"/>
-      <c r="N62" s="38"/>
-      <c r="O62" s="38"/>
-      <c r="P62" s="38"/>
-      <c r="Q62" s="38"/>
-      <c r="R62" s="38"/>
-      <c r="S62" s="38"/>
-      <c r="T62" s="38"/>
-      <c r="U62" s="38"/>
-      <c r="V62" s="38"/>
-      <c r="W62" s="38"/>
-      <c r="X62" s="38"/>
-      <c r="Y62" s="38"/>
-      <c r="Z62" s="38"/>
-      <c r="AA62" s="38"/>
-      <c r="AB62" s="38"/>
-      <c r="AC62" s="38"/>
-      <c r="AD62" s="26"/>
-      <c r="AE62" s="16"/>
-      <c r="AF62" s="16"/>
-      <c r="AG62" s="16"/>
-      <c r="AH62" s="16"/>
-      <c r="AI62" s="16"/>
-      <c r="AJ62" s="16"/>
-    </row>
-    <row r="63" spans="1:36">
-      <c r="A63" s="28"/>
-      <c r="B63" s="27"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="34"/>
-      <c r="I63" s="34"/>
-      <c r="J63" s="34"/>
-      <c r="K63" s="34"/>
-      <c r="L63" s="34"/>
-      <c r="M63" s="34"/>
-      <c r="N63" s="34"/>
-      <c r="O63" s="34"/>
-      <c r="P63" s="34"/>
-      <c r="Q63" s="34"/>
-      <c r="R63" s="34"/>
-      <c r="S63" s="34"/>
-      <c r="T63" s="34"/>
-      <c r="U63" s="34"/>
-      <c r="V63" s="34"/>
-      <c r="W63" s="34"/>
-      <c r="X63" s="34"/>
-      <c r="Y63" s="34"/>
-      <c r="Z63" s="34"/>
-      <c r="AA63" s="34"/>
-      <c r="AB63" s="34"/>
-      <c r="AC63" s="34"/>
-      <c r="AD63" s="29"/>
-      <c r="AE63" s="27"/>
-      <c r="AF63" s="27"/>
-      <c r="AG63" s="27"/>
-      <c r="AH63" s="27"/>
-      <c r="AI63" s="27"/>
-      <c r="AJ63" s="27"/>
+      <c r="E63" s="37"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="37"/>
+      <c r="H63" s="37"/>
+      <c r="I63" s="37"/>
+      <c r="J63" s="37"/>
+      <c r="K63" s="37"/>
+      <c r="L63" s="37"/>
+      <c r="M63" s="37"/>
+      <c r="N63" s="37"/>
+      <c r="O63" s="37"/>
+      <c r="P63" s="37"/>
+      <c r="Q63" s="37"/>
+      <c r="R63" s="37"/>
+      <c r="S63" s="37"/>
+      <c r="T63" s="37"/>
+      <c r="U63" s="37"/>
+      <c r="V63" s="37"/>
+      <c r="W63" s="37"/>
+      <c r="X63" s="37"/>
+      <c r="Y63" s="37"/>
+      <c r="Z63" s="37"/>
+      <c r="AA63" s="37"/>
+      <c r="AB63" s="37"/>
+      <c r="AC63" s="37"/>
+      <c r="AD63" s="26"/>
     </row>
     <row r="64" spans="1:36">
-      <c r="A64" s="28"/>
-      <c r="B64" s="28"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="34"/>
-      <c r="I64" s="34"/>
-      <c r="J64" s="34"/>
-      <c r="K64" s="34"/>
-      <c r="L64" s="34"/>
-      <c r="M64" s="34"/>
-      <c r="N64" s="34"/>
-      <c r="O64" s="34"/>
-      <c r="P64" s="34"/>
-      <c r="Q64" s="34"/>
-      <c r="R64" s="34"/>
-      <c r="S64" s="34"/>
-      <c r="T64" s="34"/>
-      <c r="U64" s="34"/>
-      <c r="V64" s="34"/>
-      <c r="W64" s="34"/>
-      <c r="X64" s="34"/>
-      <c r="Y64" s="34"/>
-      <c r="Z64" s="34"/>
-      <c r="AA64" s="34"/>
-      <c r="AB64" s="34"/>
-      <c r="AC64" s="34"/>
-      <c r="AD64" s="29"/>
-      <c r="AE64" s="28"/>
-      <c r="AF64" s="28"/>
-      <c r="AG64" s="28"/>
-      <c r="AH64" s="28"/>
-      <c r="AI64" s="28"/>
-      <c r="AJ64" s="28"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="38"/>
+      <c r="F64" s="38"/>
+      <c r="G64" s="38"/>
+      <c r="H64" s="38"/>
+      <c r="I64" s="38"/>
+      <c r="J64" s="38"/>
+      <c r="K64" s="38"/>
+      <c r="L64" s="38"/>
+      <c r="M64" s="38"/>
+      <c r="N64" s="38"/>
+      <c r="O64" s="38"/>
+      <c r="P64" s="38"/>
+      <c r="Q64" s="38"/>
+      <c r="R64" s="38"/>
+      <c r="S64" s="38"/>
+      <c r="T64" s="38"/>
+      <c r="U64" s="38"/>
+      <c r="V64" s="38"/>
+      <c r="W64" s="38"/>
+      <c r="X64" s="38"/>
+      <c r="Y64" s="38"/>
+      <c r="Z64" s="38"/>
+      <c r="AA64" s="38"/>
+      <c r="AB64" s="38"/>
+      <c r="AC64" s="38"/>
+      <c r="AD64" s="26"/>
     </row>
     <row r="65" spans="1:36">
-      <c r="A65" s="28"/>
-      <c r="B65" s="28"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="31"/>
-      <c r="K65" s="31"/>
-      <c r="L65" s="31"/>
-      <c r="M65" s="31"/>
-      <c r="N65" s="31"/>
-      <c r="O65" s="31"/>
-      <c r="P65" s="31"/>
-      <c r="Q65" s="31"/>
-      <c r="R65" s="31"/>
-      <c r="S65" s="31"/>
-      <c r="T65" s="31"/>
-      <c r="U65" s="31"/>
-      <c r="V65" s="31"/>
-      <c r="W65" s="31"/>
-      <c r="X65" s="31"/>
-      <c r="Y65" s="31"/>
-      <c r="Z65" s="31"/>
-      <c r="AA65" s="31"/>
-      <c r="AB65" s="31"/>
-      <c r="AC65" s="31"/>
-      <c r="AD65" s="29"/>
-      <c r="AE65" s="28"/>
-      <c r="AF65" s="28"/>
-      <c r="AG65" s="28"/>
-      <c r="AH65" s="28"/>
-      <c r="AI65" s="28"/>
-      <c r="AJ65" s="28"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="38"/>
+      <c r="F65" s="38"/>
+      <c r="G65" s="38"/>
+      <c r="H65" s="38"/>
+      <c r="I65" s="38"/>
+      <c r="J65" s="38"/>
+      <c r="K65" s="38"/>
+      <c r="L65" s="38"/>
+      <c r="M65" s="38"/>
+      <c r="N65" s="38"/>
+      <c r="O65" s="38"/>
+      <c r="P65" s="38"/>
+      <c r="Q65" s="38"/>
+      <c r="R65" s="38"/>
+      <c r="S65" s="38"/>
+      <c r="T65" s="38"/>
+      <c r="U65" s="38"/>
+      <c r="V65" s="38"/>
+      <c r="W65" s="38"/>
+      <c r="X65" s="38"/>
+      <c r="Y65" s="38"/>
+      <c r="Z65" s="38"/>
+      <c r="AA65" s="38"/>
+      <c r="AB65" s="38"/>
+      <c r="AC65" s="38"/>
+      <c r="AD65" s="26"/>
+      <c r="AE65" s="16"/>
+      <c r="AF65" s="16"/>
+      <c r="AG65" s="16"/>
+      <c r="AH65" s="16"/>
+      <c r="AI65" s="16"/>
+      <c r="AJ65" s="16"/>
     </row>
     <row r="66" spans="1:36">
       <c r="A66" s="28"/>
-      <c r="B66" s="28"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="31"/>
-      <c r="F66" s="31"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="31"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="31"/>
-      <c r="K66" s="31"/>
-      <c r="L66" s="31"/>
-      <c r="M66" s="31"/>
-      <c r="N66" s="31"/>
-      <c r="O66" s="31"/>
-      <c r="P66" s="31"/>
-      <c r="Q66" s="31"/>
-      <c r="R66" s="31"/>
-      <c r="S66" s="31"/>
-      <c r="T66" s="31"/>
-      <c r="U66" s="31"/>
-      <c r="V66" s="31"/>
-      <c r="W66" s="31"/>
-      <c r="X66" s="31"/>
-      <c r="Y66" s="31"/>
-      <c r="Z66" s="31"/>
-      <c r="AA66" s="31"/>
-      <c r="AB66" s="31"/>
-      <c r="AC66" s="31"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="34"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="34"/>
+      <c r="J66" s="34"/>
+      <c r="K66" s="34"/>
+      <c r="L66" s="34"/>
+      <c r="M66" s="34"/>
+      <c r="N66" s="34"/>
+      <c r="O66" s="34"/>
+      <c r="P66" s="34"/>
+      <c r="Q66" s="34"/>
+      <c r="R66" s="34"/>
+      <c r="S66" s="34"/>
+      <c r="T66" s="34"/>
+      <c r="U66" s="34"/>
+      <c r="V66" s="34"/>
+      <c r="W66" s="34"/>
+      <c r="X66" s="34"/>
+      <c r="Y66" s="34"/>
+      <c r="Z66" s="34"/>
+      <c r="AA66" s="34"/>
+      <c r="AB66" s="34"/>
+      <c r="AC66" s="34"/>
       <c r="AD66" s="29"/>
-      <c r="AE66" s="28"/>
-      <c r="AF66" s="28"/>
-      <c r="AG66" s="28"/>
-      <c r="AH66" s="28"/>
-      <c r="AI66" s="28"/>
-      <c r="AJ66" s="28"/>
+      <c r="AE66" s="27"/>
+      <c r="AF66" s="27"/>
+      <c r="AG66" s="27"/>
+      <c r="AH66" s="27"/>
+      <c r="AI66" s="27"/>
+      <c r="AJ66" s="27"/>
     </row>
     <row r="67" spans="1:36">
       <c r="A67" s="28"/>
@@ -4291,33 +4308,33 @@
     <row r="69" spans="1:36">
       <c r="A69" s="28"/>
       <c r="B69" s="28"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="34"/>
-      <c r="F69" s="34"/>
-      <c r="G69" s="34"/>
-      <c r="H69" s="34"/>
-      <c r="I69" s="34"/>
-      <c r="J69" s="34"/>
-      <c r="K69" s="34"/>
-      <c r="L69" s="34"/>
-      <c r="M69" s="34"/>
-      <c r="N69" s="34"/>
-      <c r="O69" s="34"/>
-      <c r="P69" s="34"/>
-      <c r="Q69" s="34"/>
-      <c r="R69" s="34"/>
-      <c r="S69" s="34"/>
-      <c r="T69" s="34"/>
-      <c r="U69" s="34"/>
-      <c r="V69" s="34"/>
-      <c r="W69" s="34"/>
-      <c r="X69" s="34"/>
-      <c r="Y69" s="34"/>
-      <c r="Z69" s="34"/>
-      <c r="AA69" s="34"/>
-      <c r="AB69" s="34"/>
-      <c r="AC69" s="34"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="31"/>
+      <c r="K69" s="31"/>
+      <c r="L69" s="31"/>
+      <c r="M69" s="31"/>
+      <c r="N69" s="31"/>
+      <c r="O69" s="31"/>
+      <c r="P69" s="31"/>
+      <c r="Q69" s="31"/>
+      <c r="R69" s="31"/>
+      <c r="S69" s="31"/>
+      <c r="T69" s="31"/>
+      <c r="U69" s="31"/>
+      <c r="V69" s="31"/>
+      <c r="W69" s="31"/>
+      <c r="X69" s="31"/>
+      <c r="Y69" s="31"/>
+      <c r="Z69" s="31"/>
+      <c r="AA69" s="31"/>
+      <c r="AB69" s="31"/>
+      <c r="AC69" s="31"/>
       <c r="AD69" s="29"/>
       <c r="AE69" s="28"/>
       <c r="AF69" s="28"/>
@@ -4329,33 +4346,33 @@
     <row r="70" spans="1:36">
       <c r="A70" s="28"/>
       <c r="B70" s="28"/>
-      <c r="C70" s="30"/>
-      <c r="D70" s="31"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="31"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="31"/>
-      <c r="I70" s="31"/>
-      <c r="J70" s="31"/>
-      <c r="K70" s="31"/>
-      <c r="L70" s="31"/>
-      <c r="M70" s="31"/>
-      <c r="N70" s="31"/>
-      <c r="O70" s="31"/>
-      <c r="P70" s="31"/>
-      <c r="Q70" s="31"/>
-      <c r="R70" s="31"/>
-      <c r="S70" s="31"/>
-      <c r="T70" s="31"/>
-      <c r="U70" s="31"/>
-      <c r="V70" s="31"/>
-      <c r="W70" s="31"/>
-      <c r="X70" s="31"/>
-      <c r="Y70" s="31"/>
-      <c r="Z70" s="31"/>
-      <c r="AA70" s="31"/>
-      <c r="AB70" s="31"/>
-      <c r="AC70" s="31"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="34"/>
+      <c r="G70" s="34"/>
+      <c r="H70" s="34"/>
+      <c r="I70" s="34"/>
+      <c r="J70" s="34"/>
+      <c r="K70" s="34"/>
+      <c r="L70" s="34"/>
+      <c r="M70" s="34"/>
+      <c r="N70" s="34"/>
+      <c r="O70" s="34"/>
+      <c r="P70" s="34"/>
+      <c r="Q70" s="34"/>
+      <c r="R70" s="34"/>
+      <c r="S70" s="34"/>
+      <c r="T70" s="34"/>
+      <c r="U70" s="34"/>
+      <c r="V70" s="34"/>
+      <c r="W70" s="34"/>
+      <c r="X70" s="34"/>
+      <c r="Y70" s="34"/>
+      <c r="Z70" s="34"/>
+      <c r="AA70" s="34"/>
+      <c r="AB70" s="34"/>
+      <c r="AC70" s="34"/>
       <c r="AD70" s="29"/>
       <c r="AE70" s="28"/>
       <c r="AF70" s="28"/>
@@ -4367,7 +4384,7 @@
     <row r="71" spans="1:36">
       <c r="A71" s="28"/>
       <c r="B71" s="28"/>
-      <c r="C71" s="30"/>
+      <c r="C71" s="28"/>
       <c r="D71" s="31"/>
       <c r="E71" s="31"/>
       <c r="F71" s="31"/>
@@ -4405,7 +4422,7 @@
     <row r="72" spans="1:36">
       <c r="A72" s="28"/>
       <c r="B72" s="28"/>
-      <c r="C72" s="28"/>
+      <c r="C72" s="30"/>
       <c r="D72" s="34"/>
       <c r="E72" s="34"/>
       <c r="F72" s="34"/>
@@ -4439,6 +4456,120 @@
       <c r="AH72" s="28"/>
       <c r="AI72" s="28"/>
       <c r="AJ72" s="28"/>
+    </row>
+    <row r="73" spans="1:36">
+      <c r="A73" s="28"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="31"/>
+      <c r="F73" s="31"/>
+      <c r="G73" s="31"/>
+      <c r="H73" s="31"/>
+      <c r="I73" s="31"/>
+      <c r="J73" s="31"/>
+      <c r="K73" s="31"/>
+      <c r="L73" s="31"/>
+      <c r="M73" s="31"/>
+      <c r="N73" s="31"/>
+      <c r="O73" s="31"/>
+      <c r="P73" s="31"/>
+      <c r="Q73" s="31"/>
+      <c r="R73" s="31"/>
+      <c r="S73" s="31"/>
+      <c r="T73" s="31"/>
+      <c r="U73" s="31"/>
+      <c r="V73" s="31"/>
+      <c r="W73" s="31"/>
+      <c r="X73" s="31"/>
+      <c r="Y73" s="31"/>
+      <c r="Z73" s="31"/>
+      <c r="AA73" s="31"/>
+      <c r="AB73" s="31"/>
+      <c r="AC73" s="31"/>
+      <c r="AD73" s="29"/>
+      <c r="AE73" s="28"/>
+      <c r="AF73" s="28"/>
+      <c r="AG73" s="28"/>
+      <c r="AH73" s="28"/>
+      <c r="AI73" s="28"/>
+      <c r="AJ73" s="28"/>
+    </row>
+    <row r="74" spans="1:36">
+      <c r="A74" s="28"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="31"/>
+      <c r="K74" s="31"/>
+      <c r="L74" s="31"/>
+      <c r="M74" s="31"/>
+      <c r="N74" s="31"/>
+      <c r="O74" s="31"/>
+      <c r="P74" s="31"/>
+      <c r="Q74" s="31"/>
+      <c r="R74" s="31"/>
+      <c r="S74" s="31"/>
+      <c r="T74" s="31"/>
+      <c r="U74" s="31"/>
+      <c r="V74" s="31"/>
+      <c r="W74" s="31"/>
+      <c r="X74" s="31"/>
+      <c r="Y74" s="31"/>
+      <c r="Z74" s="31"/>
+      <c r="AA74" s="31"/>
+      <c r="AB74" s="31"/>
+      <c r="AC74" s="31"/>
+      <c r="AD74" s="29"/>
+      <c r="AE74" s="28"/>
+      <c r="AF74" s="28"/>
+      <c r="AG74" s="28"/>
+      <c r="AH74" s="28"/>
+      <c r="AI74" s="28"/>
+      <c r="AJ74" s="28"/>
+    </row>
+    <row r="75" spans="1:36">
+      <c r="A75" s="28"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="34"/>
+      <c r="F75" s="34"/>
+      <c r="G75" s="34"/>
+      <c r="H75" s="34"/>
+      <c r="I75" s="34"/>
+      <c r="J75" s="34"/>
+      <c r="K75" s="34"/>
+      <c r="L75" s="34"/>
+      <c r="M75" s="34"/>
+      <c r="N75" s="34"/>
+      <c r="O75" s="34"/>
+      <c r="P75" s="34"/>
+      <c r="Q75" s="34"/>
+      <c r="R75" s="34"/>
+      <c r="S75" s="34"/>
+      <c r="T75" s="34"/>
+      <c r="U75" s="34"/>
+      <c r="V75" s="34"/>
+      <c r="W75" s="34"/>
+      <c r="X75" s="34"/>
+      <c r="Y75" s="34"/>
+      <c r="Z75" s="34"/>
+      <c r="AA75" s="34"/>
+      <c r="AB75" s="34"/>
+      <c r="AC75" s="34"/>
+      <c r="AD75" s="29"/>
+      <c r="AE75" s="28"/>
+      <c r="AF75" s="28"/>
+      <c r="AG75" s="28"/>
+      <c r="AH75" s="28"/>
+      <c r="AI75" s="28"/>
+      <c r="AJ75" s="28"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -4485,10 +4616,10 @@
     <mergeCell ref="AE22:AI22"/>
     <mergeCell ref="D19:P19"/>
     <mergeCell ref="Q13:AC13"/>
-    <mergeCell ref="D60:AC60"/>
-    <mergeCell ref="D61:AC61"/>
-    <mergeCell ref="D62:AC62"/>
     <mergeCell ref="D63:AC63"/>
+    <mergeCell ref="D64:AC64"/>
+    <mergeCell ref="D65:AC65"/>
+    <mergeCell ref="D66:AC66"/>
     <mergeCell ref="Q19:AC19"/>
     <mergeCell ref="Q20:AC20"/>
     <mergeCell ref="Q21:AC21"/>
@@ -4500,15 +4631,15 @@
     <mergeCell ref="Q17:AC17"/>
     <mergeCell ref="Q18:AC18"/>
     <mergeCell ref="D27:P27"/>
-    <mergeCell ref="D72:AC72"/>
-    <mergeCell ref="E57:AJ57"/>
-    <mergeCell ref="E58:AJ58"/>
-    <mergeCell ref="E59:AJ59"/>
+    <mergeCell ref="D75:AC75"/>
+    <mergeCell ref="E60:AJ60"/>
+    <mergeCell ref="E61:AJ61"/>
+    <mergeCell ref="E62:AJ62"/>
     <mergeCell ref="Q27:AC27"/>
     <mergeCell ref="Q28:AC28"/>
-    <mergeCell ref="D64:AC64"/>
     <mergeCell ref="D67:AC67"/>
-    <mergeCell ref="D69:AC69"/>
+    <mergeCell ref="D70:AC70"/>
+    <mergeCell ref="D72:AC72"/>
     <mergeCell ref="AE27:AI27"/>
     <mergeCell ref="AE28:AI28"/>
     <mergeCell ref="D28:P28"/>
